--- a/Atividade 2 - Lista de variáveis _D.xlsx
+++ b/Atividade 2 - Lista de variáveis _D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
   <si>
     <t>Class</t>
   </si>
@@ -190,6 +190,201 @@
   </si>
   <si>
     <t>displayRegisteredProvidedServices</t>
+  </si>
+  <si>
+    <t>AgendaDAO</t>
+  </si>
+  <si>
+    <t>PhonebookDAO</t>
+  </si>
+  <si>
+    <t>// PhonebookDAO Class' Instance</t>
+  </si>
+  <si>
+    <t>incluir</t>
+  </si>
+  <si>
+    <t>includeDataToPhonebook</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>phonebook</t>
+  </si>
+  <si>
+    <t>// Variable that is going to receive the data</t>
+  </si>
+  <si>
+    <t>alterar</t>
+  </si>
+  <si>
+    <t>editPhonebookData</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>//Variable that receives the name</t>
+  </si>
+  <si>
+    <t>agenda_alterado</t>
+  </si>
+  <si>
+    <t>phonebookEdited</t>
+  </si>
+  <si>
+    <t>// Variable that receives the editions</t>
+  </si>
+  <si>
+    <t>deletePhonebookData</t>
+  </si>
+  <si>
+    <t>contato</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>// Variable receiving the phone number</t>
+  </si>
+  <si>
+    <t>updateQuery</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>// String about the exception</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>// Receives values accordingly to the database</t>
+  </si>
+  <si>
+    <t>preparedStatement</t>
+  </si>
+  <si>
+    <t>// Variable that receives the prepared statements</t>
+  </si>
+  <si>
+    <t>mostrarContatosCadastrados</t>
+  </si>
+  <si>
+    <t>showRegisteredContacts</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>pesquisarPorNome</t>
+  </si>
+  <si>
+    <t>searchByName</t>
+  </si>
+  <si>
+    <t>pst</t>
+  </si>
+  <si>
+    <t>// ResultSet instance</t>
+  </si>
+  <si>
+    <t>// Instance of java.sql</t>
+  </si>
+  <si>
+    <t>resultInstance</t>
+  </si>
+  <si>
+    <t>pesquisarPorTelefone</t>
+  </si>
+  <si>
+    <t>searchByPhone</t>
+  </si>
+  <si>
+    <t>ReciboDAO</t>
+  </si>
+  <si>
+    <t>ReceiptDAO</t>
+  </si>
+  <si>
+    <t>searchBarberServices</t>
+  </si>
+  <si>
+    <t>// Receives the barber's name</t>
+  </si>
+  <si>
+    <t>// Receives the initial date</t>
+  </si>
+  <si>
+    <t>// Receives the final date</t>
+  </si>
+  <si>
+    <t>TipoServicoDAO</t>
+  </si>
+  <si>
+    <t>ServiceTypeDAO</t>
+  </si>
+  <si>
+    <t>// ServiceTypeDAO Class' Instance</t>
+  </si>
+  <si>
+    <t>// ReceiptDAO Class' Instance</t>
+  </si>
+  <si>
+    <t>tipoServico</t>
+  </si>
+  <si>
+    <t>serviceTypeName</t>
+  </si>
+  <si>
+    <t>// Receives the name of the type of service</t>
+  </si>
+  <si>
+    <t>tipoServicoAlterado</t>
+  </si>
+  <si>
+    <t>editedServiceType</t>
+  </si>
+  <si>
+    <t>// Gets the edited service type</t>
+  </si>
+  <si>
+    <t>deleteServiceType</t>
+  </si>
+  <si>
+    <t>editServiceType</t>
+  </si>
+  <si>
+    <t>includeServiceType</t>
+  </si>
+  <si>
+    <t>// Deletes the service type</t>
+  </si>
+  <si>
+    <t>// Includes the type of the service</t>
+  </si>
+  <si>
+    <t>addServiceType</t>
+  </si>
+  <si>
+    <t>// Edits the service type</t>
+  </si>
+  <si>
+    <t>mostrarTiposServicosCadastrados</t>
+  </si>
+  <si>
+    <t>displayRegisteredTypesOfService</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>// Variable containing the services</t>
   </si>
 </sst>
 </file>
@@ -227,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -529,11 +724,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,64 +826,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2154,7 +2487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2191,283 +2524,283 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2493,11 +2826,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2533,412 +2864,716 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A25:A41"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B25:B41"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D9:D11"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Atividade 2 - Lista de variáveis _D.xlsx
+++ b/Atividade 2 - Lista de variáveis _D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="128">
   <si>
     <t>Class</t>
   </si>
@@ -385,6 +385,24 @@
   </si>
   <si>
     <t>// Variable containing the services</t>
+  </si>
+  <si>
+    <t>RelatorioException</t>
+  </si>
+  <si>
+    <t>ReportException</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>// Variable that receives na error message</t>
+  </si>
+  <si>
+    <t>ServicoException</t>
+  </si>
+  <si>
+    <t>ServiceException</t>
   </si>
 </sst>
 </file>
@@ -800,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,6 +850,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,6 +919,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,30 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,28 +961,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2524,10 +2545,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2547,8 +2568,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
@@ -2566,12 +2587,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="18"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2585,10 +2606,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2600,10 +2621,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
@@ -2615,10 +2636,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2638,107 +2659,107 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2758,49 +2779,49 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2828,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2864,10 +2885,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2887,8 +2908,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
@@ -2906,42 +2927,42 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="10" t="s">
         <v>67</v>
       </c>
@@ -2953,10 +2974,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="10" t="s">
         <v>70</v>
       </c>
@@ -2968,8 +2989,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="9" t="s">
         <v>52</v>
       </c>
@@ -2987,12 +3008,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -3006,10 +3027,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="10" t="s">
         <v>80</v>
       </c>
@@ -3021,10 +3042,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="10" t="s">
         <v>82</v>
       </c>
@@ -3036,91 +3057,91 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="46"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="46"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="48"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
@@ -3138,12 +3159,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -3157,10 +3178,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
@@ -3172,10 +3193,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="10" t="s">
         <v>16</v>
       </c>
@@ -3187,10 +3208,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="10" t="s">
         <v>80</v>
       </c>
@@ -3202,10 +3223,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="10" t="s">
         <v>89</v>
       </c>
@@ -3217,10 +3238,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="10" t="s">
         <v>86</v>
       </c>
@@ -3232,8 +3253,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="28"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="9" t="s">
         <v>77</v>
       </c>
@@ -3251,10 +3272,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -3274,8 +3295,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
@@ -3293,48 +3314,48 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="35" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="41"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="4" t="s">
         <v>67</v>
       </c>
@@ -3346,10 +3367,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="42"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="4" t="s">
         <v>108</v>
       </c>
@@ -3361,8 +3382,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
@@ -3380,12 +3401,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="35" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3399,10 +3420,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="33"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="4" t="s">
         <v>80</v>
       </c>
@@ -3414,10 +3435,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="4" t="s">
         <v>82</v>
       </c>
@@ -3429,12 +3450,12 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="35" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3448,10 +3469,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="33"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3463,38 +3484,38 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="33"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="35" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="33"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="33"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="4" t="s">
         <v>49</v>
       </c>
@@ -3506,10 +3527,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="33"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="4" t="s">
         <v>80</v>
       </c>
@@ -3521,10 +3542,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="34"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="4" t="s">
         <v>89</v>
       </c>
@@ -3537,6 +3558,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="A25:A41"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
@@ -3550,27 +3592,6 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D9:D11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4121,9 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4159,24 +4178,50 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3"/>
@@ -4653,6 +4698,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Atividade 2 - Lista de variáveis _D.xlsx
+++ b/Atividade 2 - Lista de variáveis _D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="181">
   <si>
     <t>Class</t>
   </si>
@@ -403,6 +403,165 @@
   </si>
   <si>
     <t>ServiceException</t>
+  </si>
+  <si>
+    <t>ServicoPrestado</t>
+  </si>
+  <si>
+    <t>GivenService</t>
+  </si>
+  <si>
+    <t>nomeServico</t>
+  </si>
+  <si>
+    <t>nomeBarbeiro</t>
+  </si>
+  <si>
+    <t>preco</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>NOME_INVALIDO</t>
+  </si>
+  <si>
+    <t>NOME_BRANCO</t>
+  </si>
+  <si>
+    <t>BARBEIRO_INVALIDO</t>
+  </si>
+  <si>
+    <t>BARBEIRO_BRANCO</t>
+  </si>
+  <si>
+    <t>PRECO_INVALIDO</t>
+  </si>
+  <si>
+    <t>PRECO_BRANCO</t>
+  </si>
+  <si>
+    <t>DATA_INVALIDA</t>
+  </si>
+  <si>
+    <t>DATA_BRANCO</t>
+  </si>
+  <si>
+    <t>serviceName</t>
+  </si>
+  <si>
+    <t>servicePrice</t>
+  </si>
+  <si>
+    <t>serviceDate</t>
+  </si>
+  <si>
+    <t>invalidName</t>
+  </si>
+  <si>
+    <t>blankName</t>
+  </si>
+  <si>
+    <t>invalidBarber</t>
+  </si>
+  <si>
+    <t>blankBarber</t>
+  </si>
+  <si>
+    <t>invalidPrice</t>
+  </si>
+  <si>
+    <t>blankPrice</t>
+  </si>
+  <si>
+    <t>invalidDate</t>
+  </si>
+  <si>
+    <t>blankDate</t>
+  </si>
+  <si>
+    <t>// Receives the service name</t>
+  </si>
+  <si>
+    <t>// Receives the barber´s name</t>
+  </si>
+  <si>
+    <t>// Receives the service price</t>
+  </si>
+  <si>
+    <t>// Receives the date of the service</t>
+  </si>
+  <si>
+    <t>// Name of the invalid service</t>
+  </si>
+  <si>
+    <t>// Name of the blank service</t>
+  </si>
+  <si>
+    <t>// Shows that there is no barber´s name registered</t>
+  </si>
+  <si>
+    <t>// Receives a barber´s name</t>
+  </si>
+  <si>
+    <t>// Shows that the price is invalid</t>
+  </si>
+  <si>
+    <t>// Shows that there is no date registered</t>
+  </si>
+  <si>
+    <t>// Shows that there is no price registered</t>
+  </si>
+  <si>
+    <t>// Receives a new date</t>
+  </si>
+  <si>
+    <t>ConverterDataParaABNT</t>
+  </si>
+  <si>
+    <t>convertServiceDateToABNT</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>simpleDateFormat</t>
+  </si>
+  <si>
+    <t>// Date in the format: yyyy/mm/dd</t>
+  </si>
+  <si>
+    <t>sdf2</t>
+  </si>
+  <si>
+    <t>secondSimpleDateFormat</t>
+  </si>
+  <si>
+    <t>// Date in the format: dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>databr</t>
+  </si>
+  <si>
+    <t>dateABNT</t>
+  </si>
+  <si>
+    <t>// Date in the brazillian format pattern</t>
+  </si>
+  <si>
+    <t>setDate</t>
+  </si>
+  <si>
+    <t>setData</t>
+  </si>
+  <si>
+    <t>dataISO</t>
+  </si>
+  <si>
+    <t>dateISO</t>
+  </si>
+  <si>
+    <t>// Receives intel from "serviceDate" variable</t>
   </si>
 </sst>
 </file>
@@ -440,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -814,11 +973,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,6 +1073,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,27 +1154,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,7 +1190,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,11 +2059,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1833,7 +2072,7 @@
     <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1856,651 +2095,599 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10">
+    <row r="2" spans="1:7">
+      <c r="A2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="20"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="20"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="20"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="20"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="20"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="20"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="21"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="3"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3"/>
       <c r="E30" s="6"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="6"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="3"/>
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
       <c r="D43" s="3"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="G50" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="C18:C22"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2545,10 +2732,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2568,8 +2755,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
@@ -2587,12 +2774,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2606,10 +2793,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2621,10 +2808,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
@@ -2636,10 +2823,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2659,107 +2846,107 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="20"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="20"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="33"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2779,49 +2966,49 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2885,10 +3072,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2908,8 +3095,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="49"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
@@ -2927,42 +3114,42 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="49"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="49"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="49"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="10" t="s">
         <v>67</v>
       </c>
@@ -2974,10 +3161,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="49"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="10" t="s">
         <v>70</v>
       </c>
@@ -2989,8 +3176,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="49"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>52</v>
       </c>
@@ -3008,12 +3195,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="49"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -3027,10 +3214,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="49"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="10" t="s">
         <v>80</v>
       </c>
@@ -3042,10 +3229,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="49"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="10" t="s">
         <v>82</v>
       </c>
@@ -3057,70 +3244,70 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="49"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="49"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="49"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="50"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="37" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -3140,8 +3327,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="32"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
@@ -3159,12 +3346,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="25" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -3178,10 +3365,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
@@ -3193,10 +3380,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="10" t="s">
         <v>16</v>
       </c>
@@ -3208,10 +3395,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="10" t="s">
         <v>80</v>
       </c>
@@ -3223,10 +3410,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="10" t="s">
         <v>89</v>
       </c>
@@ -3238,10 +3425,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="10" t="s">
         <v>86</v>
       </c>
@@ -3253,8 +3440,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="9" t="s">
         <v>77</v>
       </c>
@@ -3272,10 +3459,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -3295,8 +3482,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
@@ -3314,8 +3501,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
@@ -3333,12 +3520,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="37" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="49" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3352,10 +3539,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="4" t="s">
         <v>67</v>
       </c>
@@ -3367,10 +3554,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="4" t="s">
         <v>108</v>
       </c>
@@ -3382,8 +3569,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
@@ -3401,12 +3588,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="37" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3420,10 +3607,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="4" t="s">
         <v>80</v>
       </c>
@@ -3435,10 +3622,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="4" t="s">
         <v>82</v>
       </c>
@@ -3450,12 +3637,12 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="37" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="43" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3469,10 +3656,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3484,38 +3671,38 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="37" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="37" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="40"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="35"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="4" t="s">
         <v>49</v>
       </c>
@@ -3527,10 +3714,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="4" t="s">
         <v>80</v>
       </c>
@@ -3542,10 +3729,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="36"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="4" t="s">
         <v>89</v>
       </c>
@@ -4142,7 +4329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4178,7 +4365,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="7" t="s">

--- a/Atividade 2 - Lista de variáveis _D.xlsx
+++ b/Atividade 2 - Lista de variáveis _D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="324">
   <si>
     <t>Class</t>
   </si>
@@ -562,6 +562,435 @@
   </si>
   <si>
     <t>// Receives intel from "serviceDate" variable</t>
+  </si>
+  <si>
+    <t>AgendaDAOTeste</t>
+  </si>
+  <si>
+    <t>PhonebookDAOTest</t>
+  </si>
+  <si>
+    <t>contato2</t>
+  </si>
+  <si>
+    <t>agendaDAO</t>
+  </si>
+  <si>
+    <t>contact1</t>
+  </si>
+  <si>
+    <t>contact2</t>
+  </si>
+  <si>
+    <t>phonebookDAO</t>
+  </si>
+  <si>
+    <t>// Instance for a contact from "Phonebook" class</t>
+  </si>
+  <si>
+    <t>// Second instance, for another contact from "Phonebook" class</t>
+  </si>
+  <si>
+    <t>// Gets the instance from "PhonebookDAO" class</t>
+  </si>
+  <si>
+    <t>getInstanceDeAgendaDAODeveRetonarInstanciaCorrente</t>
+  </si>
+  <si>
+    <t>getInstanceOfPhonebookDAO</t>
+  </si>
+  <si>
+    <t>inserirDeAgendaDAODeveCadastrarUmContato</t>
+  </si>
+  <si>
+    <t>addFromPhonebookDAO</t>
+  </si>
+  <si>
+    <t>excluirDeAgendaDAODeveEnviarUmAgenda</t>
+  </si>
+  <si>
+    <t>deleteFromPhonebookDAO</t>
+  </si>
+  <si>
+    <t>// Testing the deletion of a new contact</t>
+  </si>
+  <si>
+    <t>alterarDeAgendaDAODeveEnviarUmContato</t>
+  </si>
+  <si>
+    <t>editFromPhonebookDAO</t>
+  </si>
+  <si>
+    <t>// Testing the edition of a new contact</t>
+  </si>
+  <si>
+    <t>// Testing the adding of a new contact</t>
+  </si>
+  <si>
+    <t>inserirDeAgendaDAOPassandoUmContatoNulo</t>
+  </si>
+  <si>
+    <t>// Testing the adding of a new contact when contact is null</t>
+  </si>
+  <si>
+    <t>excluirDeAgendaDAOPassandoUmContatoNulo</t>
+  </si>
+  <si>
+    <t>// Testing the deletion of a new contact when contact is null</t>
+  </si>
+  <si>
+    <t>alterarDeAgendaDAOPassandoUmContatoNulo</t>
+  </si>
+  <si>
+    <t>editFromPhonebookDAOWhenInvalidContact</t>
+  </si>
+  <si>
+    <t>deleteFromPhonebookDAOWhenInvalidContact</t>
+  </si>
+  <si>
+    <t>addFromPhonebookDAOWhenInvalidContact</t>
+  </si>
+  <si>
+    <t>// Testing the edition of a new contact when contact is null</t>
+  </si>
+  <si>
+    <t>alterarDeAgendaDAOPassandoUmAgendaAleradoNulo</t>
+  </si>
+  <si>
+    <t>editFromPhonebookDAOWhenEditedNullPhonebook</t>
+  </si>
+  <si>
+    <t>// Testing the edition of a new contact when edited phonebook is null</t>
+  </si>
+  <si>
+    <t>mostrarContatosAgendaDAODeveMostrarContato</t>
+  </si>
+  <si>
+    <t>showPhonebookContactsDAO</t>
+  </si>
+  <si>
+    <t>// ResultSet Instance</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
+    <t>pesquisaPorNomeDeAgendaDAODeveMostrarContato</t>
+  </si>
+  <si>
+    <t>searchByNameFromPhonebookDAO</t>
+  </si>
+  <si>
+    <t>// Shows the contact´s name</t>
+  </si>
+  <si>
+    <t>// Searches the contact´s name</t>
+  </si>
+  <si>
+    <t>pesquisarPorTelefoneDeBarbeiroDAODeveMostrarBarbeiros</t>
+  </si>
+  <si>
+    <t>searchByNumberFromBarberDAO</t>
+  </si>
+  <si>
+    <t>// Receives the contact name to the search</t>
+  </si>
+  <si>
+    <t>BarbeiroControllerTeste</t>
+  </si>
+  <si>
+    <t>BarberControllerTest</t>
+  </si>
+  <si>
+    <t>barberInstance</t>
+  </si>
+  <si>
+    <t>// Instance of the "Barber" class</t>
+  </si>
+  <si>
+    <t>setUp</t>
+  </si>
+  <si>
+    <t>barberData</t>
+  </si>
+  <si>
+    <t>// Receives a variety of data about the barber</t>
+  </si>
+  <si>
+    <t>barbeiroController</t>
+  </si>
+  <si>
+    <t>barberController</t>
+  </si>
+  <si>
+    <t>// Instance of the "BarberController" class</t>
+  </si>
+  <si>
+    <t>getInstanceDeBarbeiroControlerDeveRetonarInstanciaCorrente</t>
+  </si>
+  <si>
+    <t>getInstanceOfBarberController</t>
+  </si>
+  <si>
+    <t>inserirDeBarbeiroControllerDeveEnviarUmBarbeiro</t>
+  </si>
+  <si>
+    <t>addFromBarberController</t>
+  </si>
+  <si>
+    <t>excluirDeBarbeiroControllerDeveEnviarUmBarbeiro</t>
+  </si>
+  <si>
+    <t>alterarDeBarbeiroControllerDeveEnviarUmBarbeiro</t>
+  </si>
+  <si>
+    <t>deleteFromBarberController</t>
+  </si>
+  <si>
+    <t>editFromBarberController</t>
+  </si>
+  <si>
+    <t>barber</t>
+  </si>
+  <si>
+    <t>// Receives the barber´s name to the edit</t>
+  </si>
+  <si>
+    <t>inserirBarbeiroNaoPodePassarBarbeiroNullo</t>
+  </si>
+  <si>
+    <t>excluirBarbeiroNaoPodePassarBarbeiroNullo</t>
+  </si>
+  <si>
+    <t>alterarBarbeiroNaoPodePassarBarbeiroNullo</t>
+  </si>
+  <si>
+    <t>addNotNullBarber</t>
+  </si>
+  <si>
+    <t>deleteNotNullBarber</t>
+  </si>
+  <si>
+    <t>editNotNullBarber</t>
+  </si>
+  <si>
+    <t>procurarPorBarbeiroControllerDeveMostrarUmBarbeiro</t>
+  </si>
+  <si>
+    <t>searchByBarberController</t>
+  </si>
+  <si>
+    <t>mostrarBarbeirosDeBarbeiroControllerDeveMostrarUmBarbeiro</t>
+  </si>
+  <si>
+    <t>displayBarberFromController</t>
+  </si>
+  <si>
+    <t>pesquisarPorNomeDeBarbeiroControllerDeveMostrarUmBarbeiro</t>
+  </si>
+  <si>
+    <t>searchByBarberNameController</t>
+  </si>
+  <si>
+    <t>RelatorioTeste</t>
+  </si>
+  <si>
+    <t>ReportTest</t>
+  </si>
+  <si>
+    <t>reportInstance</t>
+  </si>
+  <si>
+    <t>// Instance of the "Report" class</t>
+  </si>
+  <si>
+    <t>dataInicialNaoPodeSerSettadaNula</t>
+  </si>
+  <si>
+    <t>initialNotNullDate</t>
+  </si>
+  <si>
+    <t>dataInicialNaoPodeSerSettadaEmBranco</t>
+  </si>
+  <si>
+    <t>initialNotBlankDate</t>
+  </si>
+  <si>
+    <t>dataFinalNaoPodeSerSettadaNula</t>
+  </si>
+  <si>
+    <t>finalNotNullDate</t>
+  </si>
+  <si>
+    <t>dataFinalNaoPodeSerSettaEmBranco</t>
+  </si>
+  <si>
+    <t>finalNotBlankDate</t>
+  </si>
+  <si>
+    <t>barbeiroNaoPodeSerSettadoNulo</t>
+  </si>
+  <si>
+    <t>barbeiroNaoPodeSerSettoEmBranco</t>
+  </si>
+  <si>
+    <t>tipoDeServicoNaoPodeSerSettadoNulo</t>
+  </si>
+  <si>
+    <t>tipoDeServicoNaoPodeSerSettoEmBranco</t>
+  </si>
+  <si>
+    <t>notNullBarber</t>
+  </si>
+  <si>
+    <t>notBlankBarber</t>
+  </si>
+  <si>
+    <t>notNullServiceType</t>
+  </si>
+  <si>
+    <t>notBlankServiceType</t>
+  </si>
+  <si>
+    <t>construtorDeRelatorioNaoPodePassarBarbeiroNulo</t>
+  </si>
+  <si>
+    <t>construtorDeRelatorioNaoPodePassarDataFinalNula</t>
+  </si>
+  <si>
+    <t>notNullBarberReportConstructor</t>
+  </si>
+  <si>
+    <t>notNullFinalDateReportConstructor</t>
+  </si>
+  <si>
+    <t>construtorDeRelatorioNaoPodePassarDataInicialNula</t>
+  </si>
+  <si>
+    <t>notNullInitialDateReportConstructor</t>
+  </si>
+  <si>
+    <t>construtorDeRelatorioNaoPodePassarTipoServicoNulo</t>
+  </si>
+  <si>
+    <t>notNullServiceTypeReportConstructor</t>
+  </si>
+  <si>
+    <t>construtorDeRelatorioPassandoTodosOsDadosCorretos</t>
+  </si>
+  <si>
+    <t>allCorrectReportConstructor</t>
+  </si>
+  <si>
+    <t>// Instance of the "Report" class used in the assertion methods</t>
+  </si>
+  <si>
+    <t>metodoParaTestarGetterDeBarbeiro</t>
+  </si>
+  <si>
+    <t>metodoParaTestarGetterDeTipoDeServico</t>
+  </si>
+  <si>
+    <t>metodoParaTestarGetterDeDataInicial</t>
+  </si>
+  <si>
+    <t>metodoParaTestarGetterDeDataFinal</t>
+  </si>
+  <si>
+    <t>barberGetterTester</t>
+  </si>
+  <si>
+    <t>serviceTypeGetterTester</t>
+  </si>
+  <si>
+    <t>initialDateGetterTester</t>
+  </si>
+  <si>
+    <t>finalDateGetterTester</t>
+  </si>
+  <si>
+    <t>testeDataParaConverter</t>
+  </si>
+  <si>
+    <t>dateToConvertTest</t>
+  </si>
+  <si>
+    <t>TipoServicoControllerTeste</t>
+  </si>
+  <si>
+    <t>ServiceTypeControllerTest</t>
+  </si>
+  <si>
+    <t>serviceInstance</t>
+  </si>
+  <si>
+    <t>// Instance of "ServiceType" class</t>
+  </si>
+  <si>
+    <t>servicoController</t>
+  </si>
+  <si>
+    <t>serviceControllerInstance</t>
+  </si>
+  <si>
+    <t>// Instance of  "ServiceTypeController" class</t>
+  </si>
+  <si>
+    <t>getInstanceDeTipoServicoControllerDeveRetornarInstanciaCorrente</t>
+  </si>
+  <si>
+    <t>getInstanceFromServiceTypeController</t>
+  </si>
+  <si>
+    <t>tipoServicoController</t>
+  </si>
+  <si>
+    <t>serviceTypeController</t>
+  </si>
+  <si>
+    <t>// Instances used in the assertion methods</t>
+  </si>
+  <si>
+    <t>inserirDeTipoServicoControllerDeveEnviarUmTipoServico</t>
+  </si>
+  <si>
+    <t>addServiceTypeController</t>
+  </si>
+  <si>
+    <t>excluirDeTipoServicoControllerDeveRemoverUmTipoServico</t>
+  </si>
+  <si>
+    <t>alterarDeTipoServicoControllerDeveAlterarUmTipoServico</t>
+  </si>
+  <si>
+    <t>deleteServiceTypeController</t>
+  </si>
+  <si>
+    <t>editServiceTypeController</t>
+  </si>
+  <si>
+    <t>inserirTipoServicoNaoPodePassarTipoServicoNullo</t>
+  </si>
+  <si>
+    <t>excluirTipoServicoNaoPodePassarTipoServicoNullo</t>
+  </si>
+  <si>
+    <t>alterarTipoServicoNaoPodePassarTipoServicoNullo</t>
+  </si>
+  <si>
+    <t>addNotNullServiceType</t>
+  </si>
+  <si>
+    <t>deleteNotNullServiceType</t>
+  </si>
+  <si>
+    <t>editNotNullServiceType</t>
+  </si>
+  <si>
+    <t>pesquisarPorNomeDeTipoServicoControllerDeveMostrarUmServico</t>
+  </si>
+  <si>
+    <t>Instance used in the assertion method</t>
   </si>
 </sst>
 </file>
@@ -599,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1022,11 +1451,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,6 +1637,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,15 +1706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,24 +1760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,28 +1778,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2061,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2096,16 +2699,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2119,10 +2722,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="6" t="s">
         <v>131</v>
       </c>
@@ -2134,10 +2737,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
         <v>132</v>
       </c>
@@ -2149,10 +2752,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6" t="s">
         <v>133</v>
       </c>
@@ -2164,10 +2767,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="6" t="s">
         <v>134</v>
       </c>
@@ -2179,10 +2782,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="6" t="s">
         <v>135</v>
       </c>
@@ -2194,10 +2797,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="6" t="s">
         <v>136</v>
       </c>
@@ -2209,10 +2812,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="6" t="s">
         <v>137</v>
       </c>
@@ -2224,10 +2827,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="6" t="s">
         <v>138</v>
       </c>
@@ -2239,10 +2842,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="6" t="s">
         <v>139</v>
       </c>
@@ -2254,10 +2857,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="6" t="s">
         <v>140</v>
       </c>
@@ -2269,10 +2872,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="6" t="s">
         <v>141</v>
       </c>
@@ -2284,12 +2887,12 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="43" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="22" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -2303,10 +2906,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="62"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="6" t="s">
         <v>133</v>
       </c>
@@ -2318,10 +2921,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="62"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="6" t="s">
         <v>167</v>
       </c>
@@ -2333,38 +2936,38 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="58"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="60"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="6" t="s">
         <v>133</v>
       </c>
@@ -2376,10 +2979,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="60"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="6" t="s">
         <v>167</v>
       </c>
@@ -2391,10 +2994,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="60"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="18" t="s">
         <v>178</v>
       </c>
@@ -2406,10 +3009,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="61"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="6" t="s">
         <v>173</v>
       </c>
@@ -2732,10 +3335,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2755,8 +3358,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
@@ -2774,12 +3377,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="42" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2793,10 +3396,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2808,10 +3411,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
@@ -2823,10 +3426,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2846,107 +3449,107 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="29"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="29"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="41"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="29"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="29"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="42"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2966,49 +3569,49 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="33"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3072,10 +3675,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="51" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3095,8 +3698,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="53"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
@@ -3114,42 +3717,42 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="53"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="53"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="10" t="s">
         <v>67</v>
       </c>
@@ -3161,10 +3764,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="53"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="10" t="s">
         <v>70</v>
       </c>
@@ -3176,8 +3779,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="53"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9" t="s">
         <v>52</v>
       </c>
@@ -3195,12 +3798,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="53"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -3214,10 +3817,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="10" t="s">
         <v>80</v>
       </c>
@@ -3229,10 +3832,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="53"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="10" t="s">
         <v>82</v>
       </c>
@@ -3244,70 +3847,70 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="53"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="53"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="53"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="54"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -3327,8 +3930,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="41"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
@@ -3346,12 +3949,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="41"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="42" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -3365,10 +3968,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="41"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
@@ -3380,10 +3983,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="41"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="10" t="s">
         <v>16</v>
       </c>
@@ -3395,10 +3998,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="41"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="10" t="s">
         <v>80</v>
       </c>
@@ -3410,10 +4013,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="41"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="10" t="s">
         <v>89</v>
       </c>
@@ -3425,10 +4028,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="10" t="s">
         <v>86</v>
       </c>
@@ -3440,8 +4043,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="42"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="9" t="s">
         <v>77</v>
       </c>
@@ -3459,10 +4062,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -3482,8 +4085,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
@@ -3501,8 +4104,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
@@ -3520,12 +4123,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3539,10 +4142,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="50"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="4" t="s">
         <v>67</v>
       </c>
@@ -3554,10 +4157,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="51"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="4" t="s">
         <v>108</v>
       </c>
@@ -3569,8 +4172,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
@@ -3588,12 +4191,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="43" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3607,10 +4210,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="4" t="s">
         <v>80</v>
       </c>
@@ -3622,10 +4225,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="4" t="s">
         <v>82</v>
       </c>
@@ -3637,12 +4240,12 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="43" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3656,10 +4259,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3671,38 +4274,38 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="43" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="43" t="s">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="24"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="4" t="s">
         <v>49</v>
       </c>
@@ -3714,10 +4317,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="20"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="4" t="s">
         <v>80</v>
       </c>
@@ -3729,10 +4332,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="21"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="4" t="s">
         <v>89</v>
       </c>
@@ -3787,17 +4390,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="87.42578125" bestFit="1" customWidth="1"/>
@@ -3827,501 +4428,1167 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="10" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="10" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" s="73" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="3"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+    </row>
+    <row r="55" spans="1:7" s="66" customFormat="1">
+      <c r="A55" s="58"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" s="78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="G60" s="75"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="75"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="75"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="75"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" s="75"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="75"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="G65" s="75"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="75"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="75"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="76"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" s="78" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G59:G68"/>
+    <mergeCell ref="B37:B55"/>
+    <mergeCell ref="A37:A55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B56:B71"/>
+    <mergeCell ref="A56:A71"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Atividade 2 - Lista de variáveis _D.xlsx
+++ b/Atividade 2 - Lista de variáveis _D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="DAO" sheetId="4" r:id="rId4"/>
     <sheet name="Teste" sheetId="5" r:id="rId5"/>
     <sheet name="Exception" sheetId="9" r:id="rId6"/>
+    <sheet name="Livraria" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="498">
   <si>
     <t>Class</t>
   </si>
@@ -991,6 +992,528 @@
   </si>
   <si>
     <t>Instance used in the assertion method</t>
+  </si>
+  <si>
+    <t>CadastrarBarbeiro</t>
+  </si>
+  <si>
+    <t>RegisterBarber</t>
+  </si>
+  <si>
+    <t>contentPane</t>
+  </si>
+  <si>
+    <t>// Variable with the contents of the panel</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>//Instance of "CadastrarBarbeiro" class</t>
+  </si>
+  <si>
+    <t>registerBarber</t>
+  </si>
+  <si>
+    <t>inicializarComponentes</t>
+  </si>
+  <si>
+    <t>initializeComponents</t>
+  </si>
+  <si>
+    <t>// Receives the components values</t>
+  </si>
+  <si>
+    <t>scrollPane</t>
+  </si>
+  <si>
+    <t>// Creates the scrollbars</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>defaultTableModel</t>
+  </si>
+  <si>
+    <t>// Default Table Model Instance</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>// A instance from Jtable</t>
+  </si>
+  <si>
+    <t>resultSet</t>
+  </si>
+  <si>
+    <t>dados</t>
+  </si>
+  <si>
+    <t>// Gets name, cpf, rg, phone number and chair</t>
+  </si>
+  <si>
+    <t>botaoNovo</t>
+  </si>
+  <si>
+    <t>newButton</t>
+  </si>
+  <si>
+    <t>// Creates a button that says "new"</t>
+  </si>
+  <si>
+    <t>botaoAlterar</t>
+  </si>
+  <si>
+    <t>editButton</t>
+  </si>
+  <si>
+    <t>// Creates a button that says "edit"</t>
+  </si>
+  <si>
+    <t>botaoRemover</t>
+  </si>
+  <si>
+    <t>deleteButton</t>
+  </si>
+  <si>
+    <t>// Creates a button that says "delete"</t>
+  </si>
+  <si>
+    <t>// Instance of "Barber" class</t>
+  </si>
+  <si>
+    <t>// Instance of "BarberController" class</t>
+  </si>
+  <si>
+    <t>confirmacao</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>// Show confirm dialog</t>
+  </si>
+  <si>
+    <t>botaoVoltar</t>
+  </si>
+  <si>
+    <t>returnButton</t>
+  </si>
+  <si>
+    <t>// Creates a button that says "return"</t>
+  </si>
+  <si>
+    <t>mostrarMensagemDeErro</t>
+  </si>
+  <si>
+    <t>showErrorMessage</t>
+  </si>
+  <si>
+    <t>informacao</t>
+  </si>
+  <si>
+    <t>errorInformation</t>
+  </si>
+  <si>
+    <t>// Shows a message saying "Attention"</t>
+  </si>
+  <si>
+    <t>MenuPrincipal</t>
+  </si>
+  <si>
+    <t>MainMenu</t>
+  </si>
+  <si>
+    <t>mainMenu</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>// Instance of "Jpanel" class</t>
+  </si>
+  <si>
+    <t>btnAdministrativo</t>
+  </si>
+  <si>
+    <t>adminButton</t>
+  </si>
+  <si>
+    <t>// Button that says "Administrative"</t>
+  </si>
+  <si>
+    <t>btnServicosPrestados</t>
+  </si>
+  <si>
+    <t>givenServicesButton</t>
+  </si>
+  <si>
+    <t>// Button that says "Given Services"</t>
+  </si>
+  <si>
+    <t>btnRelatorios</t>
+  </si>
+  <si>
+    <t>reportsButton</t>
+  </si>
+  <si>
+    <t>// Button that says "Reports"</t>
+  </si>
+  <si>
+    <t>// Instance of a class</t>
+  </si>
+  <si>
+    <t>NovoBarbeiro</t>
+  </si>
+  <si>
+    <t>NewBarber</t>
+  </si>
+  <si>
+    <t>textFieldNome</t>
+  </si>
+  <si>
+    <t>textFieldCPF</t>
+  </si>
+  <si>
+    <t>textFieldRg</t>
+  </si>
+  <si>
+    <t>textFieldTelefone</t>
+  </si>
+  <si>
+    <t>botaoSalvar</t>
+  </si>
+  <si>
+    <t>botaoLimparCampos</t>
+  </si>
+  <si>
+    <t>textFieldCadeira</t>
+  </si>
+  <si>
+    <t>lblCadeira</t>
+  </si>
+  <si>
+    <t>// Instance of "JTextField", which provides text fields to the data input</t>
+  </si>
+  <si>
+    <t>// Instance of "Jpanel"</t>
+  </si>
+  <si>
+    <t>// Instances of "Jbutton"</t>
+  </si>
+  <si>
+    <t>// Instance of Jlabel, which provides a label named "Chair"</t>
+  </si>
+  <si>
+    <t>// Button that says "Return"</t>
+  </si>
+  <si>
+    <t>nameTextField</t>
+  </si>
+  <si>
+    <t>textFieldRG</t>
+  </si>
+  <si>
+    <t>phoneTextField</t>
+  </si>
+  <si>
+    <t>// Instance of "JTextField", which provides a text field to input the name</t>
+  </si>
+  <si>
+    <t>// Instance of "JTextField", which provides a text field to input the CPF (main brazilian document)</t>
+  </si>
+  <si>
+    <t>// Instance of "JTextField", which provides a text field to input the RG (state brazillian document)</t>
+  </si>
+  <si>
+    <t>// Instance of "JTextField", which provides a text field to input the phone number</t>
+  </si>
+  <si>
+    <t>saveButton</t>
+  </si>
+  <si>
+    <t>clearFieldsButton</t>
+  </si>
+  <si>
+    <t>chairTextField</t>
+  </si>
+  <si>
+    <t>chairLabel</t>
+  </si>
+  <si>
+    <t>newBarber</t>
+  </si>
+  <si>
+    <t>mascraFormatTel</t>
+  </si>
+  <si>
+    <t>mascraFormatCpf</t>
+  </si>
+  <si>
+    <t>// Receives the phone number</t>
+  </si>
+  <si>
+    <t>// Receives the CPF (main brazillian document)</t>
+  </si>
+  <si>
+    <t>phoneMaskFormatter</t>
+  </si>
+  <si>
+    <t>maskFormatterCPF</t>
+  </si>
+  <si>
+    <t>lblNome</t>
+  </si>
+  <si>
+    <t>nameLabel</t>
+  </si>
+  <si>
+    <t>// Instance of Jlabel, which provides a label named "Name"</t>
+  </si>
+  <si>
+    <t>textFieldCpf</t>
+  </si>
+  <si>
+    <t>lblCpf</t>
+  </si>
+  <si>
+    <t>// Instance of Jlabel, which provides a label named "CPF"</t>
+  </si>
+  <si>
+    <t>// Text field to input the CPF (main brazillian document)</t>
+  </si>
+  <si>
+    <t>labelCPF</t>
+  </si>
+  <si>
+    <t>lblRg</t>
+  </si>
+  <si>
+    <t>// Instance of Jlabel, which provides a label named "RG"</t>
+  </si>
+  <si>
+    <t>lblTelefone</t>
+  </si>
+  <si>
+    <t>// Instance of Jlabel, which provides a label named "Phone"</t>
+  </si>
+  <si>
+    <t>// Button that says "Save"</t>
+  </si>
+  <si>
+    <t>labelRG</t>
+  </si>
+  <si>
+    <t>phoneLabel</t>
+  </si>
+  <si>
+    <t>mouseClicked</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// </t>
+  </si>
+  <si>
+    <t>// Will receive name, CPF, RG, phone and chair of the barber</t>
+  </si>
+  <si>
+    <t>// Will add a barber</t>
+  </si>
+  <si>
+    <t>// Frame that will receive the added barber</t>
+  </si>
+  <si>
+    <t>// Text field to input the chair used by the barber</t>
+  </si>
+  <si>
+    <t>// Button used to clear all the fields</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>// Button that offers the return option to the user</t>
+  </si>
+  <si>
+    <t>// Show a message saying "Attention"</t>
+  </si>
+  <si>
+    <t>NovoContato</t>
+  </si>
+  <si>
+    <t>NewContact</t>
+  </si>
+  <si>
+    <t>textFieldDescricao</t>
+  </si>
+  <si>
+    <t>// Instances of "JTextField", that will receive the data</t>
+  </si>
+  <si>
+    <t>descriptionTextField</t>
+  </si>
+  <si>
+    <t>// Instance of "New Contact" class</t>
+  </si>
+  <si>
+    <t>newContact</t>
+  </si>
+  <si>
+    <t>maskFormatterPhone</t>
+  </si>
+  <si>
+    <t>// Receives and formats the phone number</t>
+  </si>
+  <si>
+    <t>btnSalvar</t>
+  </si>
+  <si>
+    <t>// Button that offers the save option to the user</t>
+  </si>
+  <si>
+    <t>// Instance of "Phonebook" class</t>
+  </si>
+  <si>
+    <t>agendaController</t>
+  </si>
+  <si>
+    <t>phonebookController</t>
+  </si>
+  <si>
+    <t>// Instance of "PhonebookController" class</t>
+  </si>
+  <si>
+    <t>// Instance of "RegisterPhonebook"</t>
+  </si>
+  <si>
+    <t>btnVoltar</t>
+  </si>
+  <si>
+    <t>btnLimparCampos</t>
+  </si>
+  <si>
+    <t>// Button that offers the option to clear the fields to the user</t>
+  </si>
+  <si>
+    <t>// Label that says "Name"</t>
+  </si>
+  <si>
+    <t>descriptionLabel</t>
+  </si>
+  <si>
+    <t>// Label that says "Telefone"</t>
+  </si>
+  <si>
+    <t>lblDescricao</t>
+  </si>
+  <si>
+    <t>// Label that says "Description"</t>
+  </si>
+  <si>
+    <t>PesquisarContato</t>
+  </si>
+  <si>
+    <t>SearchContact</t>
+  </si>
+  <si>
+    <t>textField</t>
+  </si>
+  <si>
+    <t>// Instance of Jpanel</t>
+  </si>
+  <si>
+    <t>// Instance of JTextField</t>
+  </si>
+  <si>
+    <t>// Instance of "SearchContact"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Instance of JTextField </t>
+  </si>
+  <si>
+    <t>lblPesquisar</t>
+  </si>
+  <si>
+    <t>searchLabel</t>
+  </si>
+  <si>
+    <t>// Label that says "Search"</t>
+  </si>
+  <si>
+    <t>btnPesquisarNome</t>
+  </si>
+  <si>
+    <t>nameSearchButton</t>
+  </si>
+  <si>
+    <t>// Button that offers the "Search name" option</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>// Variable used to control in the for</t>
+  </si>
+  <si>
+    <t>// Instance of "AgendaController"</t>
+  </si>
+  <si>
+    <t>// Instance of ResultSet</t>
+  </si>
+  <si>
+    <t>resultSetData</t>
+  </si>
+  <si>
+    <t>// Receives the name, phone and description</t>
+  </si>
+  <si>
+    <t>btnPesquisarTelefone</t>
+  </si>
+  <si>
+    <t>phoneSearchButton</t>
+  </si>
+  <si>
+    <t>// Button that says "Phone Search"</t>
+  </si>
+  <si>
+    <t>btnAlterar</t>
+  </si>
+  <si>
+    <t>// Button that says "Edit"</t>
+  </si>
+  <si>
+    <t>btnRemover</t>
+  </si>
+  <si>
+    <t>removeButton</t>
+  </si>
+  <si>
+    <t>// Button that says "Remove"</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>contactPhone</t>
+  </si>
+  <si>
+    <t>// Variable that receives the name</t>
+  </si>
+  <si>
+    <t>// Variable that receives the phone</t>
+  </si>
+  <si>
+    <t>// Shows the confirmation dialog</t>
   </si>
 </sst>
 </file>
@@ -1581,11 +2104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,16 +2166,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1677,33 +2245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1760,6 +2301,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1769,52 +2319,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,11 +2640,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2124,539 +2651,1834 @@
     <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="67"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="67"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="68"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="67"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="67"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G63" s="52"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="67"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G64" s="53"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="67"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="67"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="67"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="67"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="67"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="67"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="67"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="67"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="67"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="67"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="67"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="67"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G76" s="51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="67"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G77" s="52"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="67"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G78" s="53"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="67"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="67"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="67"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="68"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="B83" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="D83" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="55"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="55"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="55"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="55"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="55"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="55"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="55"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="55"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="55"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="55"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="55"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="55"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="55"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="55"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="55"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="55"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="55"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="55"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="55"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="55"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D103" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="55"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="55"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="55"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="55"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="55"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="56"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="C96:C102"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="B83:B109"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B61:B82"/>
+    <mergeCell ref="A61:A82"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A83:A109"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D39:D51"/>
+    <mergeCell ref="C39:C51"/>
+    <mergeCell ref="A27:A60"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B27:B60"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2676,618 +4498,618 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="6" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="6" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="40"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="6" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="6" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="6" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="6" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="40"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="6" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="6" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="37" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="40"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="6" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="6" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="18" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="41"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="6" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3312,306 +5134,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="10" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="46"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="46"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="58"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="46"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="58"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="46"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="58"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="46"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="59"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="47"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="46"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="50"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="47"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3652,723 +5474,702 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="51" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="10" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="10" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="10" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="10" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="64"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="42" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="47"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="64"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="42" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="65"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="58"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="10" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="10" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="10" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="10" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="10" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="59"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="40"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="40"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="40"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="4" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="4" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="40"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="40"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="4" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="4" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="40"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="27" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="40"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="4" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="40"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="27" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="40"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="27" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="35"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="40"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="4" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="40"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="4" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="4" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="D9:D11"/>
     <mergeCell ref="A25:A41"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
@@ -4382,6 +6183,27 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4392,7 +6214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4405,1153 +6227,1144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="20" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="10" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="10" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="10" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="42" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="10" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="10" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="42" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="10" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="10" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="42" t="s">
+      <c r="A20" s="79"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="42" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="42" t="s">
+      <c r="A22" s="79"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="10" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="10" t="s">
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="A26" s="79"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="45" t="s">
+      <c r="E27" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="79"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="46"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="79"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="45" t="s">
+      <c r="E31" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="79"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="46"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="79"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="47"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="51" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="46"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="47"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="42" t="s">
+      <c r="D37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="51" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="58"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="74" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="46"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="58"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="74" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="46"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="58"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="74" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="46"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="58"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="74" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="46"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="58"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="74" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="46"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="58"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="74" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="46"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="58"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="74" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="46"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="52"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="58"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="74" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="58"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="74" t="s">
+      <c r="A46" s="64"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="45" t="s">
+      <c r="E46" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="58"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="74" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="46"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="52"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="58"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="74" t="s">
+      <c r="A48" s="64"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="46"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="58"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="74" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="47"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="58"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="74" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="G50" s="73" t="s">
+      <c r="G50" s="72" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="58"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="74" t="s">
+      <c r="A51" s="64"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="58"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="74" t="s">
+      <c r="A52" s="64"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="58"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="74" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="58"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="74" t="s">
+      <c r="A54" s="64"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-    </row>
-    <row r="55" spans="1:7" s="66" customFormat="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="77" t="s">
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1">
+      <c r="A55" s="64"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="C56" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="78" t="s">
+      <c r="C56" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="78" t="s">
+      <c r="F56" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="24" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="78" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="F57" s="78" t="s">
+      <c r="F57" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="G57" s="78" t="s">
+      <c r="G57" s="24" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="75"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="78" t="s">
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D58" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="78" t="s">
+      <c r="D58" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="78" t="s">
+      <c r="F58" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="G58" s="78" t="s">
+      <c r="G58" s="24" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="73" t="s">
+      <c r="A59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="E59" s="78" t="s">
+      <c r="E59" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="F59" s="78" t="s">
+      <c r="F59" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="G59" s="73" t="s">
+      <c r="G59" s="72" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="73" t="s">
+      <c r="A60" s="74"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="G60" s="75"/>
+      <c r="G60" s="74"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="78" t="s">
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="75"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="78" t="s">
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="75"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="73" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="75"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="74"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="78" t="s">
+      <c r="A64" s="74"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="78" t="s">
+      <c r="F64" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="G64" s="75"/>
+      <c r="G64" s="74"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="78" t="s">
+      <c r="A65" s="74"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="E65" s="73" t="s">
+      <c r="E65" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="F65" s="73" t="s">
+      <c r="F65" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="G65" s="75"/>
+      <c r="G65" s="74"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="75"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="78" t="s">
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="78" t="s">
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="75"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="73" t="s">
+      <c r="A68" s="74"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="73" t="s">
+      <c r="D68" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="75"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="73" t="s">
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="73" t="s">
+      <c r="F69" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G69" s="73" t="s">
+      <c r="G69" s="72" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="75"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="73" t="s">
+      <c r="A70" s="74"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="D70" s="73" t="s">
+      <c r="D70" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="76"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="78" t="s">
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="78" t="s">
+      <c r="F71" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="G71" s="78" t="s">
+      <c r="G71" s="24" t="s">
         <v>323</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="G59:G68"/>
-    <mergeCell ref="B37:B55"/>
-    <mergeCell ref="A37:A55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B56:B71"/>
-    <mergeCell ref="A56:A71"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="G37:G45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
     <mergeCell ref="G34:G36"/>
@@ -5564,28 +7377,37 @@
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B2:B23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="B37:B55"/>
+    <mergeCell ref="A37:A55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B56:B71"/>
+    <mergeCell ref="A56:A71"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G59:G68"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5609,546 +7431,1084 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="3"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="87.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Atividade 2 - Lista de variáveis _D.xlsx
+++ b/Atividade 2 - Lista de variáveis _D.xlsx
@@ -13,14 +13,13 @@
     <sheet name="DAO" sheetId="4" r:id="rId4"/>
     <sheet name="Teste" sheetId="5" r:id="rId5"/>
     <sheet name="Exception" sheetId="9" r:id="rId6"/>
-    <sheet name="Livraria" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="634">
   <si>
     <t>Class</t>
   </si>
@@ -1514,6 +1513,414 @@
   </si>
   <si>
     <t>// Shows the confirmation dialog</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>purchaseList</t>
+  </si>
+  <si>
+    <t>Cod_compra</t>
+  </si>
+  <si>
+    <t>Data_compra</t>
+  </si>
+  <si>
+    <t>Valor_compra</t>
+  </si>
+  <si>
+    <t>Endereco_entrega</t>
+  </si>
+  <si>
+    <t>Tipo_pag</t>
+  </si>
+  <si>
+    <t>purchaseCode</t>
+  </si>
+  <si>
+    <t>purchaseDate</t>
+  </si>
+  <si>
+    <t>purchaseValue</t>
+  </si>
+  <si>
+    <t>deliveryAddress</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>// List with all the purchases</t>
+  </si>
+  <si>
+    <t>// Code used to perform the purchase</t>
+  </si>
+  <si>
+    <t>// Date that the purchase was made</t>
+  </si>
+  <si>
+    <t>// Purchase value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Address to the delivery </t>
+  </si>
+  <si>
+    <t>// Type of payment</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>inputNumbers</t>
+  </si>
+  <si>
+    <t>// Receives numbers</t>
+  </si>
+  <si>
+    <t>lerString</t>
+  </si>
+  <si>
+    <t>readString</t>
+  </si>
+  <si>
+    <t>// Reads strings from the user</t>
+  </si>
+  <si>
+    <t>Compra (construtor)</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>Cadastrar_compra</t>
+  </si>
+  <si>
+    <t>addPurchase</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>purchaseInstance</t>
+  </si>
+  <si>
+    <t>// Instance of class "Purchase"</t>
+  </si>
+  <si>
+    <t>Cancelar_compra</t>
+  </si>
+  <si>
+    <t>cancelPurchase</t>
+  </si>
+  <si>
+    <t>opcao</t>
+  </si>
+  <si>
+    <t>cancelOption</t>
+  </si>
+  <si>
+    <t>// Gives a option, whether to cancel or not</t>
+  </si>
+  <si>
+    <t>end_compra</t>
+  </si>
+  <si>
+    <t>Verificar_endereco</t>
+  </si>
+  <si>
+    <t>checkAddress</t>
+  </si>
+  <si>
+    <t>changeAddressOption</t>
+  </si>
+  <si>
+    <t>// Gives a option, whether to change the address or not</t>
+  </si>
+  <si>
+    <t>indexOfCPF</t>
+  </si>
+  <si>
+    <t>// Position of the CPF (Brazilian document) from the actual client in the list</t>
+  </si>
+  <si>
+    <t>novo_endereco</t>
+  </si>
+  <si>
+    <t>newDeliveryAddress</t>
+  </si>
+  <si>
+    <t>// Receives the new delivery address</t>
+  </si>
+  <si>
+    <t>Verificar_pagamento</t>
+  </si>
+  <si>
+    <t>checkPayment</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>tipo_p</t>
+  </si>
+  <si>
+    <t>totalValue</t>
+  </si>
+  <si>
+    <t>// Total value of the purchase</t>
+  </si>
+  <si>
+    <t>Finalizar_compra</t>
+  </si>
+  <si>
+    <t>endPurchase</t>
+  </si>
+  <si>
+    <t>cancelPurchaseOption</t>
+  </si>
+  <si>
+    <t>// Gives a option, whether to cancel the purchase or not</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>cod_pag</t>
+  </si>
+  <si>
+    <t>paymentCode</t>
+  </si>
+  <si>
+    <t>// Receives the payment code</t>
+  </si>
+  <si>
+    <t>data_pag</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>// Receives the payment date</t>
+  </si>
+  <si>
+    <t>valor_pag</t>
+  </si>
+  <si>
+    <t>paymentValue</t>
+  </si>
+  <si>
+    <t>// Receives the payment value</t>
+  </si>
+  <si>
+    <t>Pagamento (construtor)</t>
+  </si>
+  <si>
+    <t>purchase (constructor)</t>
+  </si>
+  <si>
+    <t>payment (constructor)</t>
+  </si>
+  <si>
+    <t>arquivo</t>
+  </si>
+  <si>
+    <t>exitFile</t>
+  </si>
+  <si>
+    <t>// File containing the output of the software</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>// Object that will receive data</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>pagamento</t>
+  </si>
+  <si>
+    <t>listCode</t>
+  </si>
+  <si>
+    <t>listDate</t>
+  </si>
+  <si>
+    <t>listPayment</t>
+  </si>
+  <si>
+    <t>// List containing the codes</t>
+  </si>
+  <si>
+    <t>// List containing the dates</t>
+  </si>
+  <si>
+    <t>// List containing the payments</t>
+  </si>
+  <si>
+    <t>cadastrar_pag</t>
+  </si>
+  <si>
+    <t>addPayment</t>
+  </si>
+  <si>
+    <t>aux1</t>
+  </si>
+  <si>
+    <t>aux2</t>
+  </si>
+  <si>
+    <t>dataAtual</t>
+  </si>
+  <si>
+    <t>// Instance of "Date" class</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>// Receives tha payment value</t>
+  </si>
+  <si>
+    <t>// Used for control in the for</t>
+  </si>
+  <si>
+    <t>// Receives data from the "scan" object</t>
+  </si>
+  <si>
+    <t>currentDate</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>// Instance of "FileWriter"</t>
+  </si>
+  <si>
+    <t>fileWriterInstance</t>
+  </si>
+  <si>
+    <t>integerToString</t>
+  </si>
+  <si>
+    <t>floatToString</t>
+  </si>
+  <si>
+    <t>// Converts float values to strings</t>
+  </si>
+  <si>
+    <t>// Converts integer values to strings</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>bufferedWriterInstance</t>
+  </si>
+  <si>
+    <t>// Instance of "BufferedWriter"</t>
+  </si>
+  <si>
+    <t>alterar_pag</t>
+  </si>
+  <si>
+    <t>editPayment</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>converter</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>// Used for control in the if</t>
+  </si>
+  <si>
+    <t>correctValue</t>
+  </si>
+  <si>
+    <t>// Receives the correct value of the payment</t>
+  </si>
+  <si>
+    <t>// Collects the index number, from the user, to be edited</t>
+  </si>
+  <si>
+    <t>consultar_pag</t>
+  </si>
+  <si>
+    <t>consultPayment</t>
+  </si>
+  <si>
+    <t>lerLinha</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>fileReaderInstance</t>
+  </si>
+  <si>
+    <t>bufferedReaderInstance</t>
+  </si>
+  <si>
+    <t>// Reads the line from the archive</t>
+  </si>
+  <si>
+    <t>// Instance of "FileReader"</t>
+  </si>
+  <si>
+    <t>// Instance of "BufferedReader"</t>
+  </si>
+  <si>
+    <t>excluir_pag</t>
+  </si>
+  <si>
+    <t>deletePayment</t>
+  </si>
+  <si>
+    <t>numeroLinha</t>
+  </si>
+  <si>
+    <t>lineNumber</t>
+  </si>
+  <si>
+    <t>exclusao</t>
+  </si>
+  <si>
+    <t>listDelete</t>
+  </si>
+  <si>
+    <t>// List to save the archive data</t>
+  </si>
+  <si>
+    <t>// Reads the line to be deleted</t>
+  </si>
+  <si>
+    <t>// Receives the number of the line to be deleted</t>
+  </si>
+  <si>
+    <t>Compra (livraria)</t>
+  </si>
+  <si>
+    <t>Pagamento (livraria)</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2187,6 +2594,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2247,42 +2699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2299,15 +2715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2344,6 +2751,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2642,7 +3067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2678,10 +3103,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2701,8 +3126,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="8" t="s">
         <v>329</v>
       </c>
@@ -2720,8 +3145,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="8" t="s">
         <v>324</v>
       </c>
@@ -2739,12 +3164,12 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -2758,10 +3183,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="9" t="s">
         <v>335</v>
       </c>
@@ -2773,10 +3198,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="9" t="s">
         <v>337</v>
       </c>
@@ -2788,10 +3213,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="9" t="s">
         <v>340</v>
       </c>
@@ -2803,10 +3228,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="9" t="s">
         <v>232</v>
       </c>
@@ -2818,10 +3243,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
@@ -2833,10 +3258,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="9" t="s">
         <v>86</v>
       </c>
@@ -2848,10 +3273,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="9" t="s">
         <v>343</v>
       </c>
@@ -2863,10 +3288,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="67"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="9" t="s">
         <v>345</v>
       </c>
@@ -2878,10 +3303,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="67"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="9" t="s">
         <v>348</v>
       </c>
@@ -2893,10 +3318,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="67"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="9" t="s">
         <v>351</v>
       </c>
@@ -2908,10 +3333,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="67"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="9" t="s">
         <v>356</v>
       </c>
@@ -2923,10 +3348,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="67"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="9" t="s">
         <v>359</v>
       </c>
@@ -2938,8 +3363,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="68"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8" t="s">
         <v>362</v>
       </c>
@@ -2957,10 +3382,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="34" t="s">
         <v>368</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2980,8 +3405,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="67"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="8" t="s">
         <v>329</v>
       </c>
@@ -2999,12 +3424,12 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="67"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="48" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="31" t="s">
         <v>369</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -3018,10 +3443,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="67"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="9" t="s">
         <v>370</v>
       </c>
@@ -3033,10 +3458,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="67"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="9" t="s">
         <v>372</v>
       </c>
@@ -3048,10 +3473,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="67"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="9" t="s">
         <v>375</v>
       </c>
@@ -3063,10 +3488,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="67"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="9" t="s">
         <v>378</v>
       </c>
@@ -3078,8 +3503,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="68"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="8" t="s">
         <v>362</v>
       </c>
@@ -3097,16 +3522,16 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="48" t="s">
+      <c r="C27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -3120,10 +3545,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="67"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="9" t="s">
         <v>384</v>
       </c>
@@ -3135,10 +3560,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="67"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="9" t="s">
         <v>385</v>
       </c>
@@ -3150,10 +3575,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="67"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="9" t="s">
         <v>386</v>
       </c>
@@ -3165,10 +3590,10 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="67"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="9" t="s">
         <v>387</v>
       </c>
@@ -3180,38 +3605,38 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="67"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="9" t="s">
         <v>388</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="37" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="67"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="9" t="s">
         <v>389</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="67"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="9" t="s">
         <v>390</v>
       </c>
@@ -3223,10 +3648,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="67"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="9" t="s">
         <v>391</v>
       </c>
@@ -3238,10 +3663,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="67"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="9" t="s">
         <v>359</v>
       </c>
@@ -3253,8 +3678,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="67"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="8" t="s">
         <v>329</v>
       </c>
@@ -3272,8 +3697,8 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="67"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="8" t="s">
         <v>382</v>
       </c>
@@ -3291,12 +3716,12 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="67"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="48" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -3310,10 +3735,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="67"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="9" t="s">
         <v>409</v>
       </c>
@@ -3325,10 +3750,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="67"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="9" t="s">
         <v>410</v>
       </c>
@@ -3340,10 +3765,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="67"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="9" t="s">
         <v>384</v>
       </c>
@@ -3355,10 +3780,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="67"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="9" t="s">
         <v>415</v>
       </c>
@@ -3370,10 +3795,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="67"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="9" t="s">
         <v>418</v>
       </c>
@@ -3385,10 +3810,10 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="67"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="9" t="s">
         <v>419</v>
       </c>
@@ -3400,10 +3825,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="67"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="9" t="s">
         <v>386</v>
       </c>
@@ -3413,10 +3838,10 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="67"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="9" t="s">
         <v>423</v>
       </c>
@@ -3428,10 +3853,10 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="67"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="9" t="s">
         <v>387</v>
       </c>
@@ -3441,10 +3866,10 @@
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="67"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="9" t="s">
         <v>425</v>
       </c>
@@ -3456,10 +3881,10 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="67"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="9" t="s">
         <v>391</v>
       </c>
@@ -3471,10 +3896,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="67"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="9" t="s">
         <v>388</v>
       </c>
@@ -3486,12 +3911,12 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="67"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="48" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -3505,10 +3930,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="67"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="9" t="s">
         <v>13</v>
       </c>
@@ -3520,10 +3945,10 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="67"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="9" t="s">
         <v>232</v>
       </c>
@@ -3535,10 +3960,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="67"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="9" t="s">
         <v>328</v>
       </c>
@@ -3550,12 +3975,12 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="67"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="48" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E56" s="9" t="s">
@@ -3569,10 +3994,10 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="67"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="9" t="s">
         <v>389</v>
       </c>
@@ -3584,8 +4009,8 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="67"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="8" t="s">
         <v>430</v>
       </c>
@@ -3603,8 +4028,8 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="67"/>
-      <c r="B59" s="58"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="8" t="s">
         <v>332</v>
       </c>
@@ -3622,8 +4047,8 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="68"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="8" t="s">
         <v>362</v>
       </c>
@@ -3641,16 +4066,16 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="C61" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="48" t="s">
+      <c r="C61" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3664,49 +4089,49 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="67"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="9" t="s">
         <v>384</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="67"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G63" s="52"/>
+      <c r="G63" s="39"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="67"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="9" t="s">
         <v>444</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G64" s="53"/>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="67"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="8" t="s">
         <v>329</v>
       </c>
@@ -3724,8 +4149,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="67"/>
-      <c r="B66" s="58"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="8" t="s">
         <v>442</v>
       </c>
@@ -3743,12 +4168,12 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="67"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="48" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -3762,10 +4187,10 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="67"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="9" t="s">
         <v>409</v>
       </c>
@@ -3777,10 +4202,10 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="67"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="9" t="s">
         <v>451</v>
       </c>
@@ -3792,12 +4217,12 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="67"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="48" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -3811,10 +4236,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="67"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="9" t="s">
         <v>62</v>
       </c>
@@ -3826,10 +4251,10 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="67"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="9" t="s">
         <v>454</v>
       </c>
@@ -3841,10 +4266,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="67"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="9" t="s">
         <v>328</v>
       </c>
@@ -3856,12 +4281,12 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="67"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="48" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -3875,10 +4300,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="67"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="9" t="s">
         <v>459</v>
       </c>
@@ -3890,51 +4315,51 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="67"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="9" t="s">
         <v>384</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="67"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G77" s="52"/>
+      <c r="G77" s="39"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="67"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="9" t="s">
         <v>444</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G78" s="53"/>
+      <c r="G78" s="38"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="67"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="9" t="s">
         <v>415</v>
       </c>
@@ -3946,10 +4371,10 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="67"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="9" t="s">
         <v>425</v>
       </c>
@@ -3961,10 +4386,10 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="67"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="9" t="s">
         <v>464</v>
       </c>
@@ -3976,8 +4401,8 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="68"/>
-      <c r="B82" s="59"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="8" t="s">
         <v>362</v>
       </c>
@@ -3995,16 +4420,16 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="C83" s="48" t="s">
+      <c r="C83" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="31" t="s">
         <v>467</v>
       </c>
       <c r="E83" s="9" t="s">
@@ -4018,10 +4443,10 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="55"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="9" t="s">
         <v>468</v>
       </c>
@@ -4033,10 +4458,10 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="55"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="9" t="s">
         <v>328</v>
       </c>
@@ -4048,12 +4473,12 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="55"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="48" t="s">
+      <c r="A86" s="41"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E86" s="9" t="s">
@@ -4067,10 +4492,10 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="55"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="9" t="s">
         <v>335</v>
       </c>
@@ -4082,10 +4507,10 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="55"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="9" t="s">
         <v>337</v>
       </c>
@@ -4097,10 +4522,10 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="55"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="9" t="s">
         <v>468</v>
       </c>
@@ -4112,10 +4537,10 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="55"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="9" t="s">
         <v>473</v>
       </c>
@@ -4127,10 +4552,10 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="55"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="9" t="s">
         <v>476</v>
       </c>
@@ -4142,12 +4567,12 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="55"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="48" t="s">
+      <c r="A92" s="41"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="9" t="s">
@@ -4161,10 +4586,10 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="55"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="9" t="s">
         <v>74</v>
       </c>
@@ -4176,10 +4601,10 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="55"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="9" t="s">
         <v>86</v>
       </c>
@@ -4191,10 +4616,10 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="55"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="9" t="s">
         <v>343</v>
       </c>
@@ -4206,12 +4631,12 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="55"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="48" t="s">
+      <c r="A96" s="41"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D96" s="48" t="s">
+      <c r="D96" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E96" s="9" t="s">
@@ -4225,10 +4650,10 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="55"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="9" t="s">
         <v>479</v>
       </c>
@@ -4240,10 +4665,10 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="55"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="9" t="s">
         <v>74</v>
       </c>
@@ -4255,10 +4680,10 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="55"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="9" t="s">
         <v>86</v>
       </c>
@@ -4270,10 +4695,10 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="55"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="9" t="s">
         <v>343</v>
       </c>
@@ -4285,10 +4710,10 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="55"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="9" t="s">
         <v>488</v>
       </c>
@@ -4300,10 +4725,10 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="55"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
       <c r="E102" s="9" t="s">
         <v>490</v>
       </c>
@@ -4315,12 +4740,12 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="55"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="48" t="s">
+      <c r="A103" s="41"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="D103" s="48" t="s">
+      <c r="D103" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
@@ -4334,10 +4759,10 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="55"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="9" t="s">
         <v>493</v>
       </c>
@@ -4349,10 +4774,10 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="55"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="9" t="s">
         <v>62</v>
       </c>
@@ -4364,10 +4789,10 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="55"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="9" t="s">
         <v>356</v>
       </c>
@@ -4379,10 +4804,10 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="55"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="9" t="s">
         <v>454</v>
       </c>
@@ -4394,8 +4819,8 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="55"/>
-      <c r="B108" s="58"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="8" t="s">
         <v>332</v>
       </c>
@@ -4413,8 +4838,8 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="56"/>
-      <c r="B109" s="59"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="8" t="s">
         <v>362</v>
       </c>
@@ -4433,6 +4858,13 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B61:B82"/>
+    <mergeCell ref="A61:A82"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A83:A109"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="C70:C73"/>
     <mergeCell ref="D96:D102"/>
     <mergeCell ref="C96:C102"/>
     <mergeCell ref="D103:D107"/>
@@ -4442,13 +4874,6 @@
     <mergeCell ref="C86:C91"/>
     <mergeCell ref="D92:D95"/>
     <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B61:B82"/>
-    <mergeCell ref="A61:A82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A83:A109"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="C70:C73"/>
     <mergeCell ref="G76:G78"/>
     <mergeCell ref="D74:D81"/>
     <mergeCell ref="C74:C81"/>
@@ -4484,9 +4909,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4494,7 +4919,7 @@
     <col min="3" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
@@ -4521,16 +4946,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4544,10 +4969,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="5" t="s">
         <v>131</v>
       </c>
@@ -4559,10 +4984,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="5" t="s">
         <v>132</v>
       </c>
@@ -4574,10 +4999,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
@@ -4589,10 +5014,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="5" t="s">
         <v>134</v>
       </c>
@@ -4604,10 +5029,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="5" t="s">
         <v>135</v>
       </c>
@@ -4619,10 +5044,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="5" t="s">
         <v>136</v>
       </c>
@@ -4634,10 +5059,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="5" t="s">
         <v>137</v>
       </c>
@@ -4649,10 +5074,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="5" t="s">
         <v>138</v>
       </c>
@@ -4664,10 +5089,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="5" t="s">
         <v>139</v>
       </c>
@@ -4679,10 +5104,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="5" t="s">
         <v>140</v>
       </c>
@@ -4694,10 +5119,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="5" t="s">
         <v>141</v>
       </c>
@@ -4709,12 +5134,12 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="32"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="42" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="54" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -4728,10 +5153,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="5" t="s">
         <v>133</v>
       </c>
@@ -4743,10 +5168,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="5" t="s">
         <v>167</v>
       </c>
@@ -4758,38 +5183,38 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="32"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="37" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="52" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="46"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="5" t="s">
         <v>133</v>
       </c>
@@ -4801,10 +5226,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="46"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="5" t="s">
         <v>167</v>
       </c>
@@ -4816,10 +5241,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
@@ -4831,10 +5256,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="5" t="s">
         <v>173</v>
       </c>
@@ -4846,259 +5271,980 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="78" t="s">
+        <v>632</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="3"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="84" t="s">
+        <v>633</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>557</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="85"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="85"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="85"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="85"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>584</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="85"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="85"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="85"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="85"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="85"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="85"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="85"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="85"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="85"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>605</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="85"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="85"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="85"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="85"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="85"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="85"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="85"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="85"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>614</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="85"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="85"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="85"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="D74" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="85"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="85"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="85"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="85"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="85"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="85"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="86"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>603</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="35">
+    <mergeCell ref="A45:A81"/>
+    <mergeCell ref="B45:B81"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="C54:C62"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="A23:A44"/>
+    <mergeCell ref="B23:B44"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="D14:D17"/>
@@ -5157,10 +6303,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -5180,8 +6326,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="55"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
@@ -5199,12 +6345,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -5218,10 +6364,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
@@ -5233,10 +6379,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
@@ -5248,10 +6394,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -5271,107 +6417,107 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="52"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="52"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="64"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="65"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="53"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -5391,49 +6537,49 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="52"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="56"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5497,10 +6643,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -5520,8 +6666,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
@@ -5539,42 +6685,42 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="53"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
@@ -5586,10 +6732,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="9" t="s">
         <v>70</v>
       </c>
@@ -5601,8 +6747,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
@@ -5620,12 +6766,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="48" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -5639,10 +6785,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="9" t="s">
         <v>80</v>
       </c>
@@ -5654,10 +6800,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="9" t="s">
         <v>82</v>
       </c>
@@ -5669,70 +6815,70 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="67"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="53"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="67"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="48" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="37" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="63" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -5752,8 +6898,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="64"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
@@ -5771,12 +6917,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="64"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="31" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -5790,10 +6936,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="64"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="9" t="s">
         <v>14</v>
       </c>
@@ -5805,10 +6951,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="64"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="9" t="s">
         <v>16</v>
       </c>
@@ -5820,10 +6966,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="64"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
@@ -5835,10 +6981,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="64"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
@@ -5850,10 +6996,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="64"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
@@ -5865,8 +7011,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="65"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="8" t="s">
         <v>77</v>
       </c>
@@ -5884,10 +7030,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -5907,8 +7053,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="32"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -5926,8 +7072,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="32"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
@@ -5945,9 +7091,9 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="32"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="42" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="69" t="s">
@@ -5964,9 +7110,9 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="70"/>
       <c r="E29" s="3" t="s">
         <v>67</v>
@@ -5979,9 +7125,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="32"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="44"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="71"/>
       <c r="E30" s="3" t="s">
         <v>108</v>
@@ -5994,8 +7140,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="32"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
@@ -6013,12 +7159,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="32"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="42" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -6032,10 +7178,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="32"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="3" t="s">
         <v>80</v>
       </c>
@@ -6047,10 +7193,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="32"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="3" t="s">
         <v>82</v>
       </c>
@@ -6062,12 +7208,12 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="32"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="42" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="57" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -6081,10 +7227,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="32"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="3" t="s">
         <v>80</v>
       </c>
@@ -6096,38 +7242,38 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="32"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="42" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="32"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="42" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="36"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="51"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="32"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="3" t="s">
         <v>49</v>
       </c>
@@ -6139,10 +7285,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="32"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="3" t="s">
         <v>80</v>
       </c>
@@ -6154,10 +7300,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="33"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="3" t="s">
         <v>89</v>
       </c>
@@ -6324,10 +7470,10 @@
     <row r="6" spans="1:7">
       <c r="A6" s="79"/>
       <c r="B6" s="76"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="31" t="s">
         <v>194</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -6343,8 +7489,8 @@
     <row r="7" spans="1:7">
       <c r="A7" s="79"/>
       <c r="B7" s="76"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="19" t="s">
         <v>74</v>
       </c>
@@ -6358,10 +7504,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="79"/>
       <c r="B8" s="76"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="31" t="s">
         <v>196</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -6377,8 +7523,8 @@
     <row r="9" spans="1:7">
       <c r="A9" s="79"/>
       <c r="B9" s="76"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="9" t="s">
         <v>74</v>
       </c>
@@ -6392,10 +7538,10 @@
     <row r="10" spans="1:7">
       <c r="A10" s="79"/>
       <c r="B10" s="76"/>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="31" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -6411,8 +7557,8 @@
     <row r="11" spans="1:7">
       <c r="A11" s="79"/>
       <c r="B11" s="76"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="9" t="s">
         <v>74</v>
       </c>
@@ -6432,10 +7578,10 @@
       <c r="D12" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="31" t="s">
         <v>187</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -6451,8 +7597,8 @@
       <c r="D13" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="9" t="s">
         <v>205</v>
       </c>
@@ -6460,14 +7606,14 @@
     <row r="14" spans="1:7">
       <c r="A14" s="79"/>
       <c r="B14" s="76"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="9" t="s">
         <v>210</v>
       </c>
@@ -6475,8 +7621,8 @@
     <row r="15" spans="1:7">
       <c r="A15" s="79"/>
       <c r="B15" s="76"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
@@ -6490,10 +7636,10 @@
     <row r="16" spans="1:7">
       <c r="A16" s="79"/>
       <c r="B16" s="76"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -6509,8 +7655,8 @@
     <row r="17" spans="1:7">
       <c r="A17" s="79"/>
       <c r="B17" s="76"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="9" t="s">
         <v>74</v>
       </c>
@@ -6524,10 +7670,10 @@
     <row r="18" spans="1:7">
       <c r="A18" s="79"/>
       <c r="B18" s="76"/>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="31" t="s">
         <v>215</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -6543,8 +7689,8 @@
     <row r="19" spans="1:7">
       <c r="A19" s="79"/>
       <c r="B19" s="76"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="9" t="s">
         <v>67</v>
       </c>
@@ -6558,10 +7704,10 @@
     <row r="20" spans="1:7">
       <c r="A20" s="79"/>
       <c r="B20" s="76"/>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="31" t="s">
         <v>219</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -6577,12 +7723,12 @@
     <row r="21" spans="1:7">
       <c r="A21" s="79"/>
       <c r="B21" s="76"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="48" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="31" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -6592,14 +7738,14 @@
     <row r="22" spans="1:7">
       <c r="A22" s="79"/>
       <c r="B22" s="76"/>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="9" t="s">
         <v>224</v>
       </c>
@@ -6607,8 +7753,8 @@
     <row r="23" spans="1:7">
       <c r="A23" s="80"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
@@ -6632,7 +7778,7 @@
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -6651,7 +7797,7 @@
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="9" t="s">
         <v>230</v>
       </c>
@@ -6687,13 +7833,13 @@
       <c r="D27" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="51" t="s">
+      <c r="E27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6706,9 +7852,9 @@
       <c r="D28" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="52"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="79"/>
@@ -6719,9 +7865,9 @@
       <c r="D29" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="53"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="79"/>
@@ -6751,13 +7897,13 @@
       <c r="D31" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="51" t="s">
+      <c r="E31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6770,9 +7916,9 @@
       <c r="D32" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="52"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="79"/>
@@ -6783,9 +7929,9 @@
       <c r="D33" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="53"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="79"/>
@@ -6796,13 +7942,13 @@
       <c r="D34" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="37" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6815,9 +7961,9 @@
       <c r="D35" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="52"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="80"/>
@@ -6828,12 +7974,12 @@
       <c r="D36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="53"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="66" t="s">
         <v>257</v>
       </c>
       <c r="B37" s="72" t="s">
@@ -6845,18 +7991,18 @@
       <c r="D37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="51" t="s">
+      <c r="G37" s="37" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="64"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="74"/>
       <c r="C38" s="22" t="s">
         <v>261</v>
@@ -6864,12 +8010,12 @@
       <c r="D38" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="52"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="64"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="74"/>
       <c r="C39" s="22" t="s">
         <v>263</v>
@@ -6877,12 +8023,12 @@
       <c r="D39" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="52"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="39"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="64"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="74"/>
       <c r="C40" s="22" t="s">
         <v>265</v>
@@ -6890,12 +8036,12 @@
       <c r="D40" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="52"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="64"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="74"/>
       <c r="C41" s="22" t="s">
         <v>267</v>
@@ -6903,12 +8049,12 @@
       <c r="D41" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="52"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="39"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="64"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="74"/>
       <c r="C42" s="22" t="s">
         <v>269</v>
@@ -6916,12 +8062,12 @@
       <c r="D42" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="52"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="64"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="74"/>
       <c r="C43" s="22" t="s">
         <v>270</v>
@@ -6929,12 +8075,12 @@
       <c r="D43" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="52"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="39"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="64"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="74"/>
       <c r="C44" s="22" t="s">
         <v>271</v>
@@ -6942,12 +8088,12 @@
       <c r="D44" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="52"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="39"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="64"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="74"/>
       <c r="C45" s="22" t="s">
         <v>272</v>
@@ -6955,12 +8101,12 @@
       <c r="D45" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="64"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="74"/>
       <c r="C46" s="22" t="s">
         <v>277</v>
@@ -6968,18 +8114,18 @@
       <c r="D46" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="51" t="s">
+      <c r="E46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="64"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="74"/>
       <c r="C47" s="22" t="s">
         <v>278</v>
@@ -6987,12 +8133,12 @@
       <c r="D47" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="52"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="39"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="64"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="74"/>
       <c r="C48" s="22" t="s">
         <v>281</v>
@@ -7000,12 +8146,12 @@
       <c r="D48" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="52"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="64"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="74"/>
       <c r="C49" s="22" t="s">
         <v>283</v>
@@ -7013,12 +8159,12 @@
       <c r="D49" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="64"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="74"/>
       <c r="C50" s="22" t="s">
         <v>285</v>
@@ -7037,7 +8183,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="64"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="74"/>
       <c r="C51" s="22" t="s">
         <v>288</v>
@@ -7050,7 +8196,7 @@
       <c r="G51" s="74"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="64"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="74"/>
       <c r="C52" s="22" t="s">
         <v>289</v>
@@ -7063,7 +8209,7 @@
       <c r="G52" s="74"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="64"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="74"/>
       <c r="C53" s="22" t="s">
         <v>290</v>
@@ -7076,7 +8222,7 @@
       <c r="G53" s="74"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="64"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="74"/>
       <c r="C54" s="22" t="s">
         <v>291</v>
@@ -7089,7 +8235,7 @@
       <c r="G54" s="74"/>
     </row>
     <row r="55" spans="1:7" s="21" customFormat="1">
-      <c r="A55" s="64"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="73"/>
       <c r="C55" s="23" t="s">
         <v>296</v>
@@ -7976,542 +9122,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="87.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="15"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="2"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="2"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="2"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Atividade 2 - Lista de variáveis _D.xlsx
+++ b/Atividade 2 - Lista de variáveis _D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="635">
   <si>
     <t>Class</t>
   </si>
@@ -1921,6 +1921,9 @@
   </si>
   <si>
     <t>Pagamento (livraria)</t>
+  </si>
+  <si>
+    <t>searchByServiceTypeNameController</t>
   </si>
 </sst>
 </file>
@@ -2594,6 +2597,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2612,24 +2624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2637,6 +2631,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2655,48 +2736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2729,46 +2768,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3067,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3103,10 +3106,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>325</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3126,8 +3129,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="8" t="s">
         <v>329</v>
       </c>
@@ -3145,8 +3148,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="8" t="s">
         <v>324</v>
       </c>
@@ -3164,12 +3167,12 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="34" t="s">
         <v>333</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -3183,10 +3186,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="9" t="s">
         <v>335</v>
       </c>
@@ -3198,10 +3201,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="9" t="s">
         <v>337</v>
       </c>
@@ -3213,10 +3216,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="9" t="s">
         <v>340</v>
       </c>
@@ -3228,10 +3231,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="9" t="s">
         <v>232</v>
       </c>
@@ -3243,10 +3246,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
@@ -3258,10 +3261,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="9" t="s">
         <v>86</v>
       </c>
@@ -3273,10 +3276,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="29"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="9" t="s">
         <v>343</v>
       </c>
@@ -3288,10 +3291,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="9" t="s">
         <v>345</v>
       </c>
@@ -3303,10 +3306,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="9" t="s">
         <v>348</v>
       </c>
@@ -3318,10 +3321,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="9" t="s">
         <v>351</v>
       </c>
@@ -3333,10 +3336,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="9" t="s">
         <v>356</v>
       </c>
@@ -3348,10 +3351,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="9" t="s">
         <v>359</v>
       </c>
@@ -3363,8 +3366,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="s">
         <v>362</v>
       </c>
@@ -3382,10 +3385,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="28" t="s">
         <v>368</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3405,8 +3408,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="8" t="s">
         <v>329</v>
       </c>
@@ -3424,12 +3427,12 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="34" t="s">
         <v>369</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -3443,10 +3446,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="9" t="s">
         <v>370</v>
       </c>
@@ -3458,10 +3461,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="29"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="9" t="s">
         <v>372</v>
       </c>
@@ -3473,10 +3476,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="29"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="9" t="s">
         <v>375</v>
       </c>
@@ -3488,10 +3491,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="29"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="9" t="s">
         <v>378</v>
       </c>
@@ -3503,8 +3506,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="s">
         <v>362</v>
       </c>
@@ -3522,16 +3525,16 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -3545,10 +3548,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="29"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="9" t="s">
         <v>384</v>
       </c>
@@ -3560,10 +3563,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="9" t="s">
         <v>385</v>
       </c>
@@ -3575,10 +3578,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="29"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="9" t="s">
         <v>386</v>
       </c>
@@ -3590,10 +3593,10 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="29"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="9" t="s">
         <v>387</v>
       </c>
@@ -3605,38 +3608,38 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="9" t="s">
         <v>388</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="40" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="29"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="9" t="s">
         <v>389</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="G33" s="38"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="29"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="9" t="s">
         <v>390</v>
       </c>
@@ -3648,10 +3651,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="29"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="9" t="s">
         <v>391</v>
       </c>
@@ -3663,10 +3666,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="29"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="9" t="s">
         <v>359</v>
       </c>
@@ -3678,8 +3681,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="29"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="8" t="s">
         <v>329</v>
       </c>
@@ -3697,8 +3700,8 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="29"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="8" t="s">
         <v>382</v>
       </c>
@@ -3716,12 +3719,12 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="29"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="31" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="34" t="s">
         <v>333</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -3735,10 +3738,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="29"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="9" t="s">
         <v>409</v>
       </c>
@@ -3750,10 +3753,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="29"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="9" t="s">
         <v>410</v>
       </c>
@@ -3765,10 +3768,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="29"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="9" t="s">
         <v>384</v>
       </c>
@@ -3780,10 +3783,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="29"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="9" t="s">
         <v>415</v>
       </c>
@@ -3795,10 +3798,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="29"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="9" t="s">
         <v>418</v>
       </c>
@@ -3810,10 +3813,10 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="29"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="9" t="s">
         <v>419</v>
       </c>
@@ -3825,10 +3828,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="29"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="9" t="s">
         <v>386</v>
       </c>
@@ -3838,10 +3841,10 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="29"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="9" t="s">
         <v>423</v>
       </c>
@@ -3853,10 +3856,10 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="29"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="9" t="s">
         <v>387</v>
       </c>
@@ -3866,10 +3869,10 @@
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="29"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="9" t="s">
         <v>425</v>
       </c>
@@ -3881,10 +3884,10 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="29"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="9" t="s">
         <v>391</v>
       </c>
@@ -3896,10 +3899,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="29"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="9" t="s">
         <v>388</v>
       </c>
@@ -3911,12 +3914,12 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="29"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="31" t="s">
+      <c r="A52" s="32"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -3930,10 +3933,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="29"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="9" t="s">
         <v>13</v>
       </c>
@@ -3945,10 +3948,10 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="29"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="9" t="s">
         <v>232</v>
       </c>
@@ -3960,10 +3963,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="29"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="9" t="s">
         <v>328</v>
       </c>
@@ -3975,12 +3978,12 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="29"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="31" t="s">
+      <c r="A56" s="32"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="34" t="s">
         <v>333</v>
       </c>
       <c r="E56" s="9" t="s">
@@ -3994,10 +3997,10 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="29"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="9" t="s">
         <v>389</v>
       </c>
@@ -4009,8 +4012,8 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="29"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="8" t="s">
         <v>430</v>
       </c>
@@ -4028,8 +4031,8 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="29"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="8" t="s">
         <v>332</v>
       </c>
@@ -4047,8 +4050,8 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="30"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="8" t="s">
         <v>362</v>
       </c>
@@ -4066,16 +4069,16 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="31" t="s">
+      <c r="C61" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -4089,49 +4092,49 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="29"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="9" t="s">
         <v>384</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G62" s="40" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="29"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
       <c r="E63" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G63" s="39"/>
+      <c r="G63" s="41"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="29"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="9" t="s">
         <v>444</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G64" s="38"/>
+      <c r="G64" s="42"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="29"/>
-      <c r="B65" s="35"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="8" t="s">
         <v>329</v>
       </c>
@@ -4149,8 +4152,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="29"/>
-      <c r="B66" s="35"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="8" t="s">
         <v>442</v>
       </c>
@@ -4168,12 +4171,12 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="29"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="31" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="34" t="s">
         <v>333</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -4187,10 +4190,10 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="29"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="9" t="s">
         <v>409</v>
       </c>
@@ -4202,10 +4205,10 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="29"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="9" t="s">
         <v>451</v>
       </c>
@@ -4217,12 +4220,12 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="29"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="31" t="s">
+      <c r="A70" s="32"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -4236,10 +4239,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="29"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="9" t="s">
         <v>62</v>
       </c>
@@ -4251,10 +4254,10 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="29"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="9" t="s">
         <v>454</v>
       </c>
@@ -4266,10 +4269,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="29"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="9" t="s">
         <v>328</v>
       </c>
@@ -4281,12 +4284,12 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="29"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="31" t="s">
+      <c r="A74" s="32"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="34" t="s">
         <v>333</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -4300,10 +4303,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="29"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="9" t="s">
         <v>459</v>
       </c>
@@ -4315,51 +4318,51 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="29"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="9" t="s">
         <v>384</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="40" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="29"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="9" t="s">
         <v>387</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G77" s="39"/>
+      <c r="G77" s="41"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="29"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="9" t="s">
         <v>444</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G78" s="38"/>
+      <c r="G78" s="42"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="29"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="9" t="s">
         <v>415</v>
       </c>
@@ -4371,10 +4374,10 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="29"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="9" t="s">
         <v>425</v>
       </c>
@@ -4386,10 +4389,10 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="29"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="9" t="s">
         <v>464</v>
       </c>
@@ -4401,8 +4404,8 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="30"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="8" t="s">
         <v>362</v>
       </c>
@@ -4420,16 +4423,16 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="34" t="s">
         <v>467</v>
       </c>
       <c r="E83" s="9" t="s">
@@ -4443,10 +4446,10 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="41"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="9" t="s">
         <v>468</v>
       </c>
@@ -4458,10 +4461,10 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="41"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
       <c r="E85" s="9" t="s">
         <v>328</v>
       </c>
@@ -4473,12 +4476,12 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="41"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="31" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="34" t="s">
         <v>333</v>
       </c>
       <c r="E86" s="9" t="s">
@@ -4492,10 +4495,10 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="41"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="9" t="s">
         <v>335</v>
       </c>
@@ -4507,10 +4510,10 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="41"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="9" t="s">
         <v>337</v>
       </c>
@@ -4522,10 +4525,10 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="41"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="9" t="s">
         <v>468</v>
       </c>
@@ -4537,10 +4540,10 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="41"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="9" t="s">
         <v>473</v>
       </c>
@@ -4552,10 +4555,10 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="41"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
       <c r="E91" s="9" t="s">
         <v>476</v>
       </c>
@@ -4567,12 +4570,12 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="41"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="31" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="9" t="s">
@@ -4586,10 +4589,10 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="41"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="9" t="s">
         <v>74</v>
       </c>
@@ -4601,10 +4604,10 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="41"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="9" t="s">
         <v>86</v>
       </c>
@@ -4616,10 +4619,10 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="41"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
       <c r="E95" s="9" t="s">
         <v>343</v>
       </c>
@@ -4631,12 +4634,12 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="41"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="31" t="s">
+      <c r="A96" s="38"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="34" t="s">
         <v>333</v>
       </c>
       <c r="E96" s="9" t="s">
@@ -4650,10 +4653,10 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="41"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="9" t="s">
         <v>479</v>
       </c>
@@ -4665,10 +4668,10 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="41"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="9" t="s">
         <v>74</v>
       </c>
@@ -4680,10 +4683,10 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="41"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="9" t="s">
         <v>86</v>
       </c>
@@ -4695,10 +4698,10 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="41"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="9" t="s">
         <v>343</v>
       </c>
@@ -4710,10 +4713,10 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="41"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="9" t="s">
         <v>488</v>
       </c>
@@ -4725,10 +4728,10 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="41"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="9" t="s">
         <v>490</v>
       </c>
@@ -4740,12 +4743,12 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="41"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="31" t="s">
+      <c r="A103" s="38"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
@@ -4759,10 +4762,10 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="41"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
       <c r="E104" s="9" t="s">
         <v>493</v>
       </c>
@@ -4774,10 +4777,10 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="41"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
       <c r="E105" s="9" t="s">
         <v>62</v>
       </c>
@@ -4789,10 +4792,10 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="41"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="9" t="s">
         <v>356</v>
       </c>
@@ -4804,10 +4807,10 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="41"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="9" t="s">
         <v>454</v>
       </c>
@@ -4819,8 +4822,8 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="41"/>
-      <c r="B108" s="35"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="8" t="s">
         <v>332</v>
       </c>
@@ -4838,8 +4841,8 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="42"/>
-      <c r="B109" s="36"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="8" t="s">
         <v>362</v>
       </c>
@@ -4858,6 +4861,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A27:A60"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B27:B60"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D39:D51"/>
+    <mergeCell ref="C39:C51"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C67:C69"/>
     <mergeCell ref="B61:B82"/>
     <mergeCell ref="A61:A82"/>
     <mergeCell ref="D83:D85"/>
@@ -4874,33 +4904,6 @@
     <mergeCell ref="C86:C91"/>
     <mergeCell ref="D92:D95"/>
     <mergeCell ref="C92:C95"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="D39:D51"/>
-    <mergeCell ref="C39:C51"/>
-    <mergeCell ref="A27:A60"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B27:B60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4946,16 +4949,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="72" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4969,10 +4972,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="5" t="s">
         <v>131</v>
       </c>
@@ -4984,10 +4987,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="47"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="47"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="5" t="s">
         <v>132</v>
       </c>
@@ -4999,10 +5002,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
@@ -5014,10 +5017,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="5" t="s">
         <v>134</v>
       </c>
@@ -5029,10 +5032,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="47"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="5" t="s">
         <v>135</v>
       </c>
@@ -5044,10 +5047,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="47"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="5" t="s">
         <v>136</v>
       </c>
@@ -5059,10 +5062,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="5" t="s">
         <v>137</v>
       </c>
@@ -5074,10 +5077,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="5" t="s">
         <v>138</v>
       </c>
@@ -5089,10 +5092,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="5" t="s">
         <v>139</v>
       </c>
@@ -5104,10 +5107,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="47"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="5" t="s">
         <v>140</v>
       </c>
@@ -5119,10 +5122,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="5" t="s">
         <v>141</v>
       </c>
@@ -5134,12 +5137,12 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="57" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="58" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -5153,10 +5156,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="5" t="s">
         <v>133</v>
       </c>
@@ -5168,10 +5171,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="56"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="5" t="s">
         <v>167</v>
       </c>
@@ -5183,38 +5186,38 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="52" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="60" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="49" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="61"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="5" t="s">
         <v>133</v>
       </c>
@@ -5226,10 +5229,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="5" t="s">
         <v>167</v>
       </c>
@@ -5241,10 +5244,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="61"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
@@ -5256,10 +5259,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="48"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="62"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="5" t="s">
         <v>173</v>
       </c>
@@ -5271,16 +5274,16 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="52" t="s">
         <v>632</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -5294,10 +5297,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="79"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="9" t="s">
         <v>501</v>
       </c>
@@ -5309,10 +5312,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="79"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="9" t="s">
         <v>502</v>
       </c>
@@ -5324,10 +5327,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="79"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="9" t="s">
         <v>503</v>
       </c>
@@ -5339,10 +5342,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="79"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="9" t="s">
         <v>504</v>
       </c>
@@ -5354,10 +5357,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="79"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="9" t="s">
         <v>505</v>
       </c>
@@ -5369,10 +5372,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="79"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="9" t="s">
         <v>517</v>
       </c>
@@ -5384,10 +5387,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="79"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="9" t="s">
         <v>520</v>
       </c>
@@ -5399,12 +5402,12 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="79"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="34" t="s">
         <v>568</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -5418,10 +5421,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="79"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="9" t="s">
         <v>133</v>
       </c>
@@ -5433,10 +5436,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="79"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="9" t="s">
         <v>525</v>
       </c>
@@ -5448,10 +5451,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="79"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="9" t="s">
         <v>526</v>
       </c>
@@ -5463,10 +5466,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="79"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="9" t="s">
         <v>505</v>
       </c>
@@ -5478,8 +5481,8 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="79"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="8" t="s">
         <v>527</v>
       </c>
@@ -5497,8 +5500,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="79"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="8" t="s">
         <v>532</v>
       </c>
@@ -5516,12 +5519,12 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="79"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="31" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="34" t="s">
         <v>539</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -5535,10 +5538,10 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="79"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="9" t="s">
         <v>479</v>
       </c>
@@ -5550,10 +5553,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="79"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="9" t="s">
         <v>537</v>
       </c>
@@ -5565,10 +5568,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="79"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="9" t="s">
         <v>544</v>
       </c>
@@ -5580,12 +5583,12 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="79"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="31" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="34" t="s">
         <v>548</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -5599,10 +5602,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="79"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="9" t="s">
         <v>550</v>
       </c>
@@ -5614,8 +5617,8 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="80"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="8" t="s">
         <v>553</v>
       </c>
@@ -5633,16 +5636,16 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="43" t="s">
         <v>633</v>
       </c>
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="57" t="s">
+      <c r="C45" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -5656,10 +5659,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="85"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="3" t="s">
         <v>561</v>
       </c>
@@ -5671,10 +5674,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="85"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="3" t="s">
         <v>564</v>
       </c>
@@ -5686,8 +5689,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="85"/>
-      <c r="B48" s="82"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="4" t="s">
         <v>567</v>
       </c>
@@ -5705,12 +5708,12 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="85"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="57" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -5724,10 +5727,10 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="85"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="3" t="s">
         <v>573</v>
       </c>
@@ -5739,10 +5742,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="85"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="3" t="s">
         <v>575</v>
       </c>
@@ -5754,10 +5757,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="85"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="3" t="s">
         <v>133</v>
       </c>
@@ -5769,10 +5772,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="85"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="3" t="s">
         <v>576</v>
       </c>
@@ -5784,12 +5787,12 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="85"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="57" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="49" t="s">
         <v>583</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="49" t="s">
         <v>584</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -5803,10 +5806,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="85"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="3" t="s">
         <v>585</v>
       </c>
@@ -5818,10 +5821,10 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="85"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="3" t="s">
         <v>586</v>
       </c>
@@ -5833,10 +5836,10 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="85"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="3" t="s">
         <v>558</v>
       </c>
@@ -5848,10 +5851,10 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="85"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="3" t="s">
         <v>479</v>
       </c>
@@ -5863,10 +5866,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="85"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="3" t="s">
         <v>587</v>
       </c>
@@ -5878,10 +5881,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="85"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="3" t="s">
         <v>564</v>
       </c>
@@ -5893,10 +5896,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="85"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="3" t="s">
         <v>594</v>
       </c>
@@ -5908,10 +5911,10 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="85"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="3" t="s">
         <v>601</v>
       </c>
@@ -5923,12 +5926,12 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="85"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="57" t="s">
+      <c r="A63" s="44"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="49" t="s">
         <v>604</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="49" t="s">
         <v>605</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -5942,10 +5945,10 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="85"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
       <c r="E64" s="3" t="s">
         <v>479</v>
       </c>
@@ -5957,10 +5960,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="85"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="3" t="s">
         <v>525</v>
       </c>
@@ -5972,10 +5975,10 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="85"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="3" t="s">
         <v>607</v>
       </c>
@@ -5987,10 +5990,10 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="85"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="3" t="s">
         <v>585</v>
       </c>
@@ -6002,10 +6005,10 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="85"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="3" t="s">
         <v>586</v>
       </c>
@@ -6017,10 +6020,10 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="85"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="3" t="s">
         <v>594</v>
       </c>
@@ -6032,10 +6035,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="85"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
       <c r="E70" s="3" t="s">
         <v>601</v>
       </c>
@@ -6047,12 +6050,12 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="85"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="57" t="s">
+      <c r="A71" s="44"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="49" t="s">
         <v>613</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="49" t="s">
         <v>614</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -6066,10 +6069,10 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="85"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
       <c r="E72" s="3" t="s">
         <v>616</v>
       </c>
@@ -6081,10 +6084,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="85"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="3" t="s">
         <v>617</v>
       </c>
@@ -6096,12 +6099,12 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="85"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="57" t="s">
+      <c r="A74" s="44"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="49" t="s">
         <v>623</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="49" t="s">
         <v>624</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -6115,10 +6118,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="85"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="3" t="s">
         <v>479</v>
       </c>
@@ -6130,10 +6133,10 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="85"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
       <c r="E76" s="3" t="s">
         <v>625</v>
       </c>
@@ -6145,10 +6148,10 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="85"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
       <c r="E77" s="3" t="s">
         <v>627</v>
       </c>
@@ -6160,10 +6163,10 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="85"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
       <c r="E78" s="3" t="s">
         <v>616</v>
       </c>
@@ -6175,10 +6178,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="85"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
       <c r="E79" s="3" t="s">
         <v>617</v>
       </c>
@@ -6190,10 +6193,10 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="85"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
       <c r="E80" s="3" t="s">
         <v>594</v>
       </c>
@@ -6205,10 +6208,10 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="86"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
       <c r="E81" s="3" t="s">
         <v>601</v>
       </c>
@@ -6221,6 +6224,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A23:A44"/>
+    <mergeCell ref="B23:B44"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="A45:A81"/>
     <mergeCell ref="B45:B81"/>
     <mergeCell ref="C45:C47"/>
@@ -6235,27 +6259,6 @@
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="C74:C81"/>
     <mergeCell ref="D74:D81"/>
-    <mergeCell ref="A23:A44"/>
-    <mergeCell ref="B23:B44"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6303,10 +6306,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -6326,8 +6329,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
@@ -6345,12 +6348,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="41"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="34" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -6364,10 +6367,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
@@ -6379,10 +6382,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="41"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
@@ -6394,10 +6397,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="75" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -6417,107 +6420,107 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="39"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="39"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="67"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="39"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="68"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -6537,49 +6540,49 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="41"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="41"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="39"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="42"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6643,10 +6646,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -6666,8 +6669,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
@@ -6685,42 +6688,42 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
@@ -6732,10 +6735,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="9" t="s">
         <v>70</v>
       </c>
@@ -6747,8 +6750,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
@@ -6766,12 +6769,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -6785,10 +6788,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="9" t="s">
         <v>80</v>
       </c>
@@ -6800,10 +6803,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="9" t="s">
         <v>82</v>
       </c>
@@ -6815,70 +6818,70 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="29"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="31" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="75" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -6898,8 +6901,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="67"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
@@ -6917,12 +6920,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="67"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="34" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -6936,10 +6939,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="67"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="9" t="s">
         <v>14</v>
       </c>
@@ -6951,10 +6954,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="67"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="9" t="s">
         <v>16</v>
       </c>
@@ -6966,10 +6969,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="67"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
@@ -6981,10 +6984,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="67"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
@@ -6996,10 +6999,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="67"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
@@ -7011,8 +7014,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="68"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="8" t="s">
         <v>77</v>
       </c>
@@ -7030,10 +7033,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="69" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -7053,8 +7056,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="47"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -7072,8 +7075,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="47"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
@@ -7091,12 +7094,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="47"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="57" t="s">
+      <c r="A28" s="73"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -7110,10 +7113,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="47"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="70"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="3" t="s">
         <v>67</v>
       </c>
@@ -7125,10 +7128,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="47"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="71"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="3" t="s">
         <v>108</v>
       </c>
@@ -7140,8 +7143,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="47"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
@@ -7159,12 +7162,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="47"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="57" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -7178,10 +7181,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="47"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="3" t="s">
         <v>80</v>
       </c>
@@ -7193,10 +7196,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="47"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="3" t="s">
         <v>82</v>
       </c>
@@ -7208,12 +7211,12 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="47"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="57" t="s">
+      <c r="A35" s="73"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="49" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -7227,10 +7230,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="47"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="3" t="s">
         <v>80</v>
       </c>
@@ -7242,38 +7245,38 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="47"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="57" t="s">
+      <c r="A37" s="73"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="47"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="57" t="s">
+      <c r="A38" s="73"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="47"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="3" t="s">
         <v>49</v>
       </c>
@@ -7285,10 +7288,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="47"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="3" t="s">
         <v>80</v>
       </c>
@@ -7300,10 +7303,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="48"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="3" t="s">
         <v>89</v>
       </c>
@@ -7316,6 +7319,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="A25:A41"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
@@ -7329,27 +7353,6 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7360,7 +7363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7396,10 +7401,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="55" t="s">
         <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -7419,8 +7424,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
@@ -7434,8 +7439,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
@@ -7449,8 +7454,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="8" t="s">
         <v>191</v>
       </c>
@@ -7468,12 +7473,12 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="34" t="s">
         <v>194</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -7487,10 +7492,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="19" t="s">
         <v>74</v>
       </c>
@@ -7502,12 +7507,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="34" t="s">
         <v>196</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -7521,10 +7526,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="9" t="s">
         <v>74</v>
       </c>
@@ -7536,12 +7541,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="34" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -7555,10 +7560,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="9" t="s">
         <v>74</v>
       </c>
@@ -7570,18 +7575,18 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="34" t="s">
         <v>187</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -7589,40 +7594,40 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="79"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="79"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="79"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
@@ -7634,12 +7639,12 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="79"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="34" t="s">
         <v>212</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -7653,10 +7658,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="79"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="9" t="s">
         <v>74</v>
       </c>
@@ -7668,12 +7673,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="79"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="34" t="s">
         <v>215</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -7687,10 +7692,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="79"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="9" t="s">
         <v>67</v>
       </c>
@@ -7702,12 +7707,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="79"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="34" t="s">
         <v>219</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -7721,14 +7726,14 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="79"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="31" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="34" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -7736,25 +7741,25 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="79"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="80"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
@@ -7766,10 +7771,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="55" t="s">
         <v>226</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -7778,7 +7783,7 @@
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -7789,15 +7794,15 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="79"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="9" t="s">
         <v>230</v>
       </c>
@@ -7806,8 +7811,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="79"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
@@ -7825,53 +7830,53 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="79"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="8" t="s">
         <v>235</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="37" t="s">
+      <c r="E27" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="79"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="8" t="s">
         <v>237</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="39"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="79"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="38"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="79"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="8" t="s">
         <v>240</v>
       </c>
@@ -7889,100 +7894,100 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="79"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="8" t="s">
         <v>245</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="37" t="s">
+      <c r="E31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="79"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="8" t="s">
         <v>246</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="79"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="8" t="s">
         <v>247</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="38"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="79"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="8" t="s">
         <v>251</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="40" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="79"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="8" t="s">
         <v>253</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="39"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="80"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="8" t="s">
         <v>255</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="38"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -7991,273 +7996,273 @@
       <c r="D37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="40" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="67"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="22" t="s">
         <v>261</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="39"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="67"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="22" t="s">
         <v>263</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="39"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="67"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="22" t="s">
         <v>265</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="39"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="67"/>
-      <c r="B41" s="74"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="22" t="s">
         <v>267</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="39"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="67"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="22" t="s">
         <v>269</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="39"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="67"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="22" t="s">
         <v>270</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="39"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="67"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="22" t="s">
         <v>271</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="39"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="67"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="22" t="s">
         <v>272</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="38"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="67"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="22" t="s">
         <v>277</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="37" t="s">
+      <c r="E46" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="67"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="22" t="s">
         <v>278</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="39"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="67"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="22" t="s">
         <v>281</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="39"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="67"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="22" t="s">
         <v>283</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="38"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="67"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="22" t="s">
         <v>285</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E50" s="72" t="s">
+      <c r="E50" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="72" t="s">
+      <c r="F50" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="G50" s="72" t="s">
+      <c r="G50" s="84" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="67"/>
-      <c r="B51" s="74"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="22" t="s">
         <v>288</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="67"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="22" t="s">
         <v>289</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="67"/>
-      <c r="B53" s="74"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="22" t="s">
         <v>290</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="67"/>
-      <c r="B54" s="74"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="22" t="s">
         <v>291</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
     </row>
     <row r="55" spans="1:7" s="21" customFormat="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="73"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="23" t="s">
         <v>296</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="C56" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="72" t="s">
+      <c r="C56" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="84" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -8271,10 +8276,10 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="74"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
       <c r="E57" s="24" t="s">
         <v>302</v>
       </c>
@@ -8286,8 +8291,8 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="74"/>
-      <c r="B58" s="74"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="24" t="s">
         <v>229</v>
       </c>
@@ -8305,12 +8310,12 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="74"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="72" t="s">
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="84" t="s">
         <v>306</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -8319,164 +8324,164 @@
       <c r="F59" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="G59" s="72" t="s">
+      <c r="G59" s="84" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="74"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="72" t="s">
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="84" t="s">
         <v>303</v>
       </c>
-      <c r="G60" s="74"/>
+      <c r="G60" s="85"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="74"/>
-      <c r="B61" s="74"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="24" t="s">
         <v>310</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="74"/>
-      <c r="B62" s="74"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="24" t="s">
         <v>312</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="74"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="72" t="s">
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="D63" s="84" t="s">
         <v>315</v>
       </c>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="85"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="74"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
       <c r="E64" s="24" t="s">
         <v>49</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="G64" s="74"/>
+      <c r="G64" s="85"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="74"/>
-      <c r="B65" s="74"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="24" t="s">
         <v>316</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="84" t="s">
         <v>303</v>
       </c>
-      <c r="G65" s="74"/>
+      <c r="G65" s="85"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
       <c r="C66" s="24" t="s">
         <v>317</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="24" t="s">
         <v>318</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="74"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="72" t="s">
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="74"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="72" t="s">
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="72" t="s">
+      <c r="F69" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="G69" s="72" t="s">
+      <c r="G69" s="84" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="74"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="72" t="s">
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="84" t="s">
         <v>322</v>
       </c>
-      <c r="D70" s="72" t="s">
-        <v>256</v>
-      </c>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
+      <c r="D70" s="84" t="s">
+        <v>634</v>
+      </c>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
       <c r="E71" s="24" t="s">
         <v>302</v>
       </c>
@@ -8489,57 +8494,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B2:B23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="G37:G45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="B37:B55"/>
-    <mergeCell ref="A37:A55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B56:B71"/>
-    <mergeCell ref="A56:A71"/>
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:G70"/>
@@ -8554,6 +8508,57 @@
     <mergeCell ref="F60:F63"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B37:B55"/>
+    <mergeCell ref="A37:A55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B56:B71"/>
+    <mergeCell ref="A56:A71"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
